--- a/Filtered_By_Region/Region X/Region X_REPAIR.xlsx
+++ b/Filtered_By_Region/Region X/Region X_REPAIR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU184"/>
+  <dimension ref="A1:AV184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +674,11 @@
           <t>Unnamed: 46</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -723,7 +729,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -732,14 +737,11 @@
       <c r="O2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>PB-02-01-2020-0003</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>January 23, 2020</t>
@@ -755,9 +757,6 @@
           <t>February 12, 2020</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
           <t>Rebid</t>
@@ -805,16 +804,11 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -870,7 +864,6 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -879,14 +872,11 @@
       <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>PB-02-01-2020-0003</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
           <t>January 23, 2020</t>
@@ -902,9 +892,6 @@
           <t>February 12, 2020</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
           <t>Rebid</t>
@@ -952,16 +939,11 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1017,7 +999,6 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1026,14 +1007,11 @@
       <c r="O4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
           <t>PB-02-01-2020-0003</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
           <t>January 23, 2020</t>
@@ -1049,9 +1027,6 @@
           <t>February 12, 2020</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
           <t>Rebid</t>
@@ -1099,16 +1074,11 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1175,14 +1145,11 @@
       <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
           <t>PB-02-01-2020-0003</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
           <t>January 23, 2020</t>
@@ -1198,9 +1165,6 @@
           <t>February 12, 2020</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
           <t>AWAITING FOR SUB-ARO</t>
@@ -1248,16 +1212,11 @@
       <c r="AN5" t="n">
         <v>0</v>
       </c>
-      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1324,14 +1283,11 @@
       <c r="O6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
           <t>PB-02-01-2020-0003</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
           <t>January 23, 2020</t>
@@ -1347,9 +1303,6 @@
           <t>February 12, 2020</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
           <t>AWAITING FOR SUB-ARO</t>
@@ -1397,16 +1350,11 @@
       <c r="AN6" t="n">
         <v>0</v>
       </c>
-      <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1473,14 +1421,11 @@
       <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
           <t>PB-02-01-2020-0003</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
           <t>January 23, 2020</t>
@@ -1496,9 +1441,6 @@
           <t>February 12, 2020</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
           <t>AWAITING FOR SUB-ARO</t>
@@ -1546,16 +1488,11 @@
       <c r="AN7" t="n">
         <v>0</v>
       </c>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1611,7 +1548,6 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1620,17 +1556,6 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1673,16 +1598,11 @@
       <c r="AN8" t="n">
         <v>0</v>
       </c>
-      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1738,7 +1658,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1747,17 +1666,6 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1800,16 +1708,11 @@
       <c r="AN9" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1865,7 +1768,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1874,17 +1776,6 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1927,16 +1818,11 @@
       <c r="AN10" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -1992,7 +1878,6 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2001,17 +1886,6 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -2054,16 +1928,11 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2119,7 +1988,6 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2128,17 +1996,6 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -2181,16 +2038,11 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
-      <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
       <c r="AU12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2257,21 +2109,15 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="3" t="n">
         <v>43843</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="3" t="n">
         <v>43850</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
           <t>Brima Const.</t>
@@ -2324,16 +2170,11 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2400,21 +2241,15 @@
       <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>43843</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>43850</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
           <t>JARM Const.</t>
@@ -2467,16 +2302,11 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2543,21 +2373,15 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="3" t="n">
         <v>43843</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>43850</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="3" t="n">
         <v>43864</v>
       </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
           <t>Brima Const.</t>
@@ -2610,16 +2434,11 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
-      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
       <c r="AU15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2686,16 +2505,6 @@
       <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
           <t>Waiting for Sub-ARO</t>
@@ -2743,16 +2552,11 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
-      <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2819,16 +2623,6 @@
       <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
           <t>Waiting for Sub-ARO</t>
@@ -2876,16 +2670,11 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
-      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -2952,16 +2741,6 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
           <t>Waiting for Sub-ARO</t>
@@ -3009,16 +2788,11 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
-      <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3074,7 +2848,6 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3083,16 +2856,6 @@
       <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
           <t>Under-procurement</t>
@@ -3140,16 +2903,11 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
-      <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3205,7 +2963,6 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3214,17 +2971,6 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -3267,16 +3013,11 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
-      <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
       <c r="AU20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3332,7 +3073,6 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3341,16 +3081,6 @@
       <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
           <t>with issue on peace and order</t>
@@ -3398,16 +3128,11 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3463,7 +3188,6 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3472,17 +3196,6 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3525,16 +3238,11 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3590,7 +3298,6 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3599,16 +3306,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
           <t>for award</t>
@@ -3656,16 +3353,11 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
-      <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
       <c r="AU23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3721,7 +3413,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3730,16 +3421,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
           <t>WITH LD</t>
@@ -3787,16 +3468,11 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
-      <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
       <c r="AU24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3852,7 +3528,6 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3861,16 +3536,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
           <t>for award</t>
@@ -3918,16 +3583,11 @@
       <c r="AN25" t="n">
         <v>0</v>
       </c>
-      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3983,7 +3643,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -3992,16 +3651,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
           <t>for award</t>
@@ -4049,16 +3698,11 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
-      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4114,7 +3758,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4123,16 +3766,6 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
           <t>WITH LD</t>
@@ -4180,16 +3813,11 @@
       <c r="AN27" t="n">
         <v>0</v>
       </c>
-      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4256,29 +3884,23 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
           <t>Yamar Construction</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -4321,16 +3943,11 @@
       <c r="AN28" t="n">
         <v>0</v>
       </c>
-      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4397,29 +4014,23 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
           <t>Yamar Construction</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4462,16 +4073,11 @@
       <c r="AN29" t="n">
         <v>0</v>
       </c>
-      <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4538,29 +4144,23 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4603,16 +4203,11 @@
       <c r="AN30" t="n">
         <v>0</v>
       </c>
-      <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4679,29 +4274,23 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4744,16 +4333,11 @@
       <c r="AN31" t="n">
         <v>0</v>
       </c>
-      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4820,29 +4404,23 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U32" s="2" t="n">
+      <c r="U32" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4885,16 +4463,11 @@
       <c r="AN32" t="n">
         <v>0</v>
       </c>
-      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
       <c r="AU32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -4961,29 +4534,23 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U33" s="2" t="n">
+      <c r="U33" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -5026,16 +4593,11 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
-      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
       <c r="AU33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5102,29 +4664,23 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -5167,16 +4723,11 @@
       <c r="AN34" t="n">
         <v>0</v>
       </c>
-      <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5243,29 +4794,23 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
           <t>Millenium Builders &amp; Construction</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -5308,16 +4853,11 @@
       <c r="AN35" t="n">
         <v>0</v>
       </c>
-      <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5373,7 +4913,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5382,17 +4921,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -5435,16 +4963,11 @@
       <c r="AN36" t="n">
         <v>0</v>
       </c>
-      <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5511,29 +5034,23 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
           <t>Millenium Builders &amp; Construction</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5576,16 +5093,11 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
-      <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5652,29 +5164,23 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>43798</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>43805</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>43818</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>43885</v>
       </c>
-      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
           <t>Inmar Builders</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5717,16 +5223,11 @@
       <c r="AN38" t="n">
         <v>0</v>
       </c>
-      <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5793,8 +5294,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
           <t>002-INFRA -2020-001</t>
@@ -5805,18 +5304,15 @@
           <t>002-INFRA -2020-001</t>
         </is>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>43860</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>43868</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>43880</v>
       </c>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
           <t>Under-procurement</t>
@@ -5864,16 +5360,11 @@
       <c r="AN39" t="n">
         <v>0</v>
       </c>
-      <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -5940,16 +5431,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
           <t>for award</t>
@@ -5997,16 +5478,11 @@
       <c r="AN40" t="n">
         <v>0</v>
       </c>
-      <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6073,17 +5549,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -6126,16 +5591,11 @@
       <c r="AN41" t="n">
         <v>0</v>
       </c>
-      <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6202,17 +5662,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -6255,16 +5704,11 @@
       <c r="AN42" t="n">
         <v>0</v>
       </c>
-      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6331,16 +5775,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
           <t>for award</t>
@@ -6388,16 +5822,11 @@
       <c r="AN43" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6464,16 +5893,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
           <t>for award</t>
@@ -6521,16 +5940,11 @@
       <c r="AN44" t="n">
         <v>0</v>
       </c>
-      <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6597,16 +6011,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
           <t>for award</t>
@@ -6654,16 +6058,11 @@
       <c r="AN45" t="n">
         <v>0</v>
       </c>
-      <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
       <c r="AU45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6730,16 +6129,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
           <t>for award</t>
@@ -6787,16 +6176,11 @@
       <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6852,7 +6236,6 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6861,16 +6244,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
           <t>For RTA</t>
@@ -6918,16 +6291,11 @@
       <c r="AN47" t="n">
         <v>0</v>
       </c>
-      <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
       <c r="AU47" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6983,7 +6351,6 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -6992,16 +6359,6 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
           <t>For RTA</t>
@@ -7049,16 +6406,11 @@
       <c r="AN48" t="n">
         <v>0</v>
       </c>
-      <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7114,7 +6466,6 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7123,16 +6474,6 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
           <t>For RTA</t>
@@ -7180,16 +6521,11 @@
       <c r="AN49" t="n">
         <v>0</v>
       </c>
-      <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
-      <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7245,7 +6581,6 @@
       <c r="L50" t="n">
         <v>1</v>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7254,16 +6589,6 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
           <t>For RTA</t>
@@ -7311,16 +6636,11 @@
       <c r="AN50" t="n">
         <v>0</v>
       </c>
-      <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="inlineStr"/>
-      <c r="AS50" t="inlineStr"/>
-      <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7376,7 +6696,6 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7385,16 +6704,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
           <t>For RTA</t>
@@ -7442,16 +6751,11 @@
       <c r="AN51" t="n">
         <v>0</v>
       </c>
-      <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
       <c r="AU51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7507,7 +6811,6 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7516,16 +6819,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
           <t>For RTA</t>
@@ -7573,16 +6866,11 @@
       <c r="AN52" t="n">
         <v>0</v>
       </c>
-      <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="inlineStr"/>
       <c r="AU52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7649,16 +6937,6 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
           <t>for award</t>
@@ -7706,16 +6984,11 @@
       <c r="AN53" t="n">
         <v>0</v>
       </c>
-      <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ53" t="inlineStr"/>
-      <c r="AR53" t="inlineStr"/>
-      <c r="AS53" t="inlineStr"/>
-      <c r="AT53" t="inlineStr"/>
       <c r="AU53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7782,16 +7055,6 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
           <t>for award</t>
@@ -7839,16 +7102,11 @@
       <c r="AN54" t="n">
         <v>0</v>
       </c>
-      <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ54" t="inlineStr"/>
-      <c r="AR54" t="inlineStr"/>
-      <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -7915,16 +7173,6 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
           <t>for award</t>
@@ -7972,16 +7220,11 @@
       <c r="AN55" t="n">
         <v>0</v>
       </c>
-      <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ55" t="inlineStr"/>
-      <c r="AR55" t="inlineStr"/>
-      <c r="AS55" t="inlineStr"/>
-      <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8048,16 +7291,6 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
           <t>for award</t>
@@ -8105,16 +7338,11 @@
       <c r="AN56" t="n">
         <v>0</v>
       </c>
-      <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ56" t="inlineStr"/>
-      <c r="AR56" t="inlineStr"/>
-      <c r="AS56" t="inlineStr"/>
-      <c r="AT56" t="inlineStr"/>
       <c r="AU56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8181,16 +7409,6 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
           <t>for award</t>
@@ -8238,16 +7456,11 @@
       <c r="AN57" t="n">
         <v>0</v>
       </c>
-      <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ57" t="inlineStr"/>
-      <c r="AR57" t="inlineStr"/>
-      <c r="AS57" t="inlineStr"/>
-      <c r="AT57" t="inlineStr"/>
       <c r="AU57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8314,16 +7527,6 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
           <t>for award</t>
@@ -8371,16 +7574,11 @@
       <c r="AN58" t="n">
         <v>0</v>
       </c>
-      <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ58" t="inlineStr"/>
-      <c r="AR58" t="inlineStr"/>
-      <c r="AS58" t="inlineStr"/>
-      <c r="AT58" t="inlineStr"/>
       <c r="AU58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8436,7 +7634,6 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8445,26 +7642,20 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
           <t>Repair2020-RX-Tangub City-004</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" s="2" t="n">
+      <c r="T59" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="U59" s="2" t="n">
+      <c r="U59" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
           <t>for contract signing</t>
@@ -8512,16 +7703,11 @@
       <c r="AN59" t="n">
         <v>0</v>
       </c>
-      <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ59" t="inlineStr"/>
-      <c r="AR59" t="inlineStr"/>
-      <c r="AS59" t="inlineStr"/>
-      <c r="AT59" t="inlineStr"/>
       <c r="AU59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8577,7 +7763,6 @@
       <c r="L60" t="n">
         <v>1</v>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8586,26 +7771,20 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
           <t>Repair2020-RX-Tangub City-011</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" s="2" t="n">
+      <c r="T60" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="U60" s="2" t="n">
+      <c r="U60" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
           <t>for contract signing</t>
@@ -8653,16 +7832,11 @@
       <c r="AN60" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ60" t="inlineStr"/>
-      <c r="AR60" t="inlineStr"/>
-      <c r="AS60" t="inlineStr"/>
-      <c r="AT60" t="inlineStr"/>
       <c r="AU60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8718,7 +7892,6 @@
       <c r="L61" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8727,26 +7900,20 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
           <t>Repair2020-RX-Tangub City-008</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" s="2" t="n">
+      <c r="T61" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="U61" s="2" t="n">
+      <c r="U61" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="V61" s="2" t="n">
+      <c r="V61" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
           <t>for contract signing</t>
@@ -8794,16 +7961,11 @@
       <c r="AN61" t="n">
         <v>0</v>
       </c>
-      <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ61" t="inlineStr"/>
-      <c r="AR61" t="inlineStr"/>
-      <c r="AS61" t="inlineStr"/>
-      <c r="AT61" t="inlineStr"/>
       <c r="AU61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8859,7 +8021,6 @@
       <c r="L62" t="n">
         <v>1</v>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -8868,26 +8029,20 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
           <t>Repair2020-RX-Tangub City-002</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" s="2" t="n">
+      <c r="T62" s="3" t="n">
         <v>43844</v>
       </c>
-      <c r="U62" s="2" t="n">
+      <c r="U62" s="3" t="n">
         <v>43854</v>
       </c>
-      <c r="V62" s="2" t="n">
+      <c r="V62" s="3" t="n">
         <v>43866</v>
       </c>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
           <t>for contract signing</t>
@@ -8935,16 +8090,11 @@
       <c r="AN62" t="n">
         <v>0</v>
       </c>
-      <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ62" t="inlineStr"/>
-      <c r="AR62" t="inlineStr"/>
-      <c r="AS62" t="inlineStr"/>
-      <c r="AT62" t="inlineStr"/>
       <c r="AU62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9000,7 +8150,6 @@
       <c r="L63" t="n">
         <v>1</v>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9009,16 +8158,6 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
           <t>for award</t>
@@ -9066,16 +8205,11 @@
       <c r="AN63" t="n">
         <v>0</v>
       </c>
-      <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ63" t="inlineStr"/>
-      <c r="AR63" t="inlineStr"/>
-      <c r="AS63" t="inlineStr"/>
-      <c r="AT63" t="inlineStr"/>
       <c r="AU63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9131,7 +8265,6 @@
       <c r="L64" t="n">
         <v>1</v>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9140,17 +8273,6 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="n">
         <v>0</v>
       </c>
@@ -9201,10 +8323,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ64" t="inlineStr"/>
-      <c r="AR64" t="inlineStr"/>
-      <c r="AS64" t="inlineStr"/>
-      <c r="AT64" t="inlineStr"/>
       <c r="AU64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9260,7 +8378,6 @@
       <c r="L65" t="n">
         <v>1</v>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9269,17 +8386,6 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="n">
         <v>0</v>
       </c>
@@ -9330,10 +8436,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ65" t="inlineStr"/>
-      <c r="AR65" t="inlineStr"/>
-      <c r="AS65" t="inlineStr"/>
-      <c r="AT65" t="inlineStr"/>
       <c r="AU65" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9389,7 +8491,6 @@
       <c r="L66" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9398,17 +8499,6 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="n">
         <v>0</v>
       </c>
@@ -9459,10 +8549,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ66" t="inlineStr"/>
-      <c r="AR66" t="inlineStr"/>
-      <c r="AS66" t="inlineStr"/>
-      <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9518,7 +8604,6 @@
       <c r="L67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9527,10 +8612,9 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" s="2" t="n">
+      <c r="P67" s="3" t="n">
         <v>44542</v>
       </c>
-      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
           <t>REPAIR 2021 - RX - CAGAYAN DE ORO CITY - 001</t>
@@ -9541,16 +8625,16 @@
           <t>2021-005</t>
         </is>
       </c>
-      <c r="T67" s="2" t="n">
+      <c r="T67" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="U67" s="2" t="n">
+      <c r="U67" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="V67" s="2" t="n">
+      <c r="V67" s="3" t="n">
         <v>44428</v>
       </c>
-      <c r="W67" s="2" t="n">
+      <c r="W67" s="3" t="n">
         <v>44445</v>
       </c>
       <c r="X67" t="inlineStr">
@@ -9563,7 +8647,6 @@
           <t>JARM Construction Services and Supply</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="n">
         <v>0</v>
       </c>
@@ -9614,10 +8697,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ67" t="inlineStr"/>
-      <c r="AR67" t="inlineStr"/>
-      <c r="AS67" t="inlineStr"/>
-      <c r="AT67" t="inlineStr"/>
       <c r="AU67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9673,7 +8752,6 @@
       <c r="L68" t="n">
         <v>1</v>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9682,10 +8760,9 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" s="2" t="n">
+      <c r="P68" s="3" t="n">
         <v>44542</v>
       </c>
-      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
           <t>REPAIR 2021 - RX - CAGAYAN DE ORO CITY - 003</t>
@@ -9696,16 +8773,16 @@
           <t>2021-005</t>
         </is>
       </c>
-      <c r="T68" s="2" t="n">
+      <c r="T68" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="U68" s="2" t="n">
+      <c r="U68" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="V68" s="2" t="n">
+      <c r="V68" s="3" t="n">
         <v>44428</v>
       </c>
-      <c r="W68" s="2" t="n">
+      <c r="W68" s="3" t="n">
         <v>44445</v>
       </c>
       <c r="X68" t="inlineStr">
@@ -9718,7 +8795,6 @@
           <t>JARM Construction Services and Supply</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="n">
         <v>0</v>
       </c>
@@ -9769,10 +8845,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ68" t="inlineStr"/>
-      <c r="AR68" t="inlineStr"/>
-      <c r="AS68" t="inlineStr"/>
-      <c r="AT68" t="inlineStr"/>
       <c r="AU68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9828,7 +8900,6 @@
       <c r="L69" t="n">
         <v>1</v>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9837,10 +8908,9 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" s="2" t="n">
+      <c r="P69" s="3" t="n">
         <v>44572</v>
       </c>
-      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
           <t>REPAIR 2021 - RX - CAGAYAN DE ORO CITY - 002</t>
@@ -9851,16 +8921,16 @@
           <t>2021-006</t>
         </is>
       </c>
-      <c r="T69" s="2" t="n">
+      <c r="T69" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="U69" s="2" t="n">
+      <c r="U69" s="3" t="n">
         <v>44382</v>
       </c>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="3" t="n">
         <v>44428</v>
       </c>
-      <c r="W69" s="2" t="n">
+      <c r="W69" s="3" t="n">
         <v>44445</v>
       </c>
       <c r="X69" t="inlineStr">
@@ -9873,7 +8943,6 @@
           <t>JARM Construction Services and Supply</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="n">
         <v>0</v>
       </c>
@@ -9924,10 +8993,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ69" t="inlineStr"/>
-      <c r="AR69" t="inlineStr"/>
-      <c r="AS69" t="inlineStr"/>
-      <c r="AT69" t="inlineStr"/>
       <c r="AU69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9983,7 +9048,6 @@
       <c r="L70" t="n">
         <v>1</v>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -9992,17 +9056,10 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" s="2" t="n">
+      <c r="P70" s="3" t="n">
         <v>44597</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" s="2" t="n">
+      <c r="X70" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y70" t="inlineStr">
@@ -10010,7 +9067,6 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="n">
         <v>0</v>
       </c>
@@ -10061,9 +9117,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ70" t="inlineStr"/>
-      <c r="AR70" t="inlineStr"/>
-      <c r="AS70" t="inlineStr"/>
       <c r="AT70" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -10135,17 +9188,10 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" s="2" t="n">
+      <c r="P71" s="3" t="n">
         <v>44597</v>
       </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" s="2" t="n">
+      <c r="X71" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y71" t="inlineStr">
@@ -10208,10 +9254,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ71" t="inlineStr"/>
-      <c r="AR71" t="inlineStr"/>
-      <c r="AS71" t="inlineStr"/>
-      <c r="AT71" t="inlineStr"/>
       <c r="AU71" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10267,7 +9309,6 @@
       <c r="L72" t="n">
         <v>1</v>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10276,17 +9317,6 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="n">
         <v>0</v>
       </c>
@@ -10337,10 +9367,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ72" t="inlineStr"/>
-      <c r="AR72" t="inlineStr"/>
-      <c r="AS72" t="inlineStr"/>
-      <c r="AT72" t="inlineStr"/>
       <c r="AU72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10396,7 +9422,6 @@
       <c r="L73" t="n">
         <v>1</v>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10405,16 +9430,6 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
           <t>for issuance of NTP</t>
@@ -10470,10 +9485,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ73" t="inlineStr"/>
-      <c r="AR73" t="inlineStr"/>
-      <c r="AS73" t="inlineStr"/>
-      <c r="AT73" t="inlineStr"/>
       <c r="AU73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10529,7 +9540,6 @@
       <c r="L74" t="n">
         <v>1</v>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10538,16 +9548,6 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
           <t>for issuance of NTP</t>
@@ -10603,10 +9603,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ74" t="inlineStr"/>
-      <c r="AR74" t="inlineStr"/>
-      <c r="AS74" t="inlineStr"/>
-      <c r="AT74" t="inlineStr"/>
       <c r="AU74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10662,7 +9658,6 @@
       <c r="L75" t="n">
         <v>1</v>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10671,16 +9666,6 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
           <t>for award</t>
@@ -10736,10 +9721,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ75" t="inlineStr"/>
-      <c r="AR75" t="inlineStr"/>
-      <c r="AS75" t="inlineStr"/>
-      <c r="AT75" t="inlineStr"/>
       <c r="AU75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10795,7 +9776,6 @@
       <c r="L76" t="n">
         <v>1</v>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10804,16 +9784,6 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
           <t>for award</t>
@@ -10869,10 +9839,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ76" t="inlineStr"/>
-      <c r="AR76" t="inlineStr"/>
-      <c r="AS76" t="inlineStr"/>
-      <c r="AT76" t="inlineStr"/>
       <c r="AU76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10928,7 +9894,6 @@
       <c r="L77" t="n">
         <v>1</v>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -10937,16 +9902,6 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
           <t>for award</t>
@@ -11002,10 +9957,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ77" t="inlineStr"/>
-      <c r="AR77" t="inlineStr"/>
-      <c r="AS77" t="inlineStr"/>
-      <c r="AT77" t="inlineStr"/>
       <c r="AU77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11061,7 +10012,6 @@
       <c r="L78" t="n">
         <v>1</v>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11070,27 +10020,19 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
           <t>2021-02- INFRA- Lot No. 1</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="3" t="n">
         <v>44413</v>
       </c>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr">
         <is>
           <t>AMMAR Construcrion &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="n">
         <v>0</v>
       </c>
@@ -11141,10 +10083,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ78" t="inlineStr"/>
-      <c r="AR78" t="inlineStr"/>
-      <c r="AS78" t="inlineStr"/>
-      <c r="AT78" t="inlineStr"/>
       <c r="AU78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11200,7 +10138,6 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11209,23 +10146,18 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" s="2" t="n">
+      <c r="P79" s="3" t="n">
         <v>44587</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
           <t>2021-02- INFRA-Lot No. 2</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="3" t="n">
         <v>44413</v>
       </c>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" s="2" t="n">
+      <c r="X79" s="3" t="n">
         <v>44489</v>
       </c>
       <c r="Y79" t="inlineStr">
@@ -11233,7 +10165,6 @@
           <t>INMAR Builder &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="n">
         <v>0</v>
       </c>
@@ -11284,10 +10215,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ79" t="inlineStr"/>
-      <c r="AR79" t="inlineStr"/>
-      <c r="AS79" t="inlineStr"/>
-      <c r="AT79" t="inlineStr"/>
       <c r="AU79" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11343,7 +10270,6 @@
       <c r="L80" t="n">
         <v>1</v>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11352,23 +10278,18 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" s="2" t="n">
+      <c r="P80" s="3" t="n">
         <v>44587</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
           <t>2021-02- INFRA-Lot No. 2</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="3" t="n">
         <v>44413</v>
       </c>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" s="2" t="n">
+      <c r="X80" s="3" t="n">
         <v>44489</v>
       </c>
       <c r="Y80" t="inlineStr">
@@ -11376,7 +10297,6 @@
           <t>INMAR Builder &amp; Enterprises</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="n">
         <v>0</v>
       </c>
@@ -11427,10 +10347,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ80" t="inlineStr"/>
-      <c r="AR80" t="inlineStr"/>
-      <c r="AS80" t="inlineStr"/>
-      <c r="AT80" t="inlineStr"/>
       <c r="AU80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11486,7 +10402,6 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11495,23 +10410,18 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" s="2" t="n">
+      <c r="P81" s="3" t="n">
         <v>44587</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
           <t>2021-02- INFRA-Lot No. 3</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="3" t="n">
         <v>44413</v>
       </c>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" s="2" t="n">
+      <c r="X81" s="3" t="n">
         <v>44489</v>
       </c>
       <c r="Y81" t="inlineStr">
@@ -11519,7 +10429,6 @@
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="n">
         <v>0</v>
       </c>
@@ -11570,10 +10479,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ81" t="inlineStr"/>
-      <c r="AR81" t="inlineStr"/>
-      <c r="AS81" t="inlineStr"/>
-      <c r="AT81" t="inlineStr"/>
       <c r="AU81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11629,7 +10534,6 @@
       <c r="L82" t="n">
         <v>1</v>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11638,10 +10542,9 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" s="2" t="n">
+      <c r="P82" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
           <t>002-INFRA-2021</t>
@@ -11652,19 +10555,19 @@
           <t>002-INFRA-2021</t>
         </is>
       </c>
-      <c r="T82" s="2" t="n">
+      <c r="T82" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="U82" s="2" t="n">
+      <c r="U82" s="3" t="n">
         <v>44366</v>
       </c>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="W82" s="2" t="n">
+      <c r="W82" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="X82" s="2" t="n">
+      <c r="X82" s="3" t="n">
         <v>44438</v>
       </c>
       <c r="Y82" t="inlineStr">
@@ -11727,10 +10630,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ82" t="inlineStr"/>
-      <c r="AR82" t="inlineStr"/>
-      <c r="AS82" t="inlineStr"/>
-      <c r="AT82" t="inlineStr"/>
       <c r="AU82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11786,7 +10685,6 @@
       <c r="L83" t="n">
         <v>1</v>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11795,10 +10693,9 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" s="2" t="n">
+      <c r="P83" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
           <t>002-INFRA-2021</t>
@@ -11809,19 +10706,19 @@
           <t>002-INFRA-2021</t>
         </is>
       </c>
-      <c r="T83" s="2" t="n">
+      <c r="T83" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="U83" s="2" t="n">
+      <c r="U83" s="3" t="n">
         <v>44365</v>
       </c>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="W83" s="2" t="n">
+      <c r="W83" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="X83" s="2" t="n">
+      <c r="X83" s="3" t="n">
         <v>44438</v>
       </c>
       <c r="Y83" t="inlineStr">
@@ -11884,10 +10781,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ83" t="inlineStr"/>
-      <c r="AR83" t="inlineStr"/>
-      <c r="AS83" t="inlineStr"/>
-      <c r="AT83" t="inlineStr"/>
       <c r="AU83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11943,7 +10836,6 @@
       <c r="L84" t="n">
         <v>1</v>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -11952,10 +10844,9 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" s="2" t="n">
+      <c r="P84" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr">
         <is>
           <t>002-INFRA-2021</t>
@@ -11966,19 +10857,19 @@
           <t>002-INFRA-2021</t>
         </is>
       </c>
-      <c r="T84" s="2" t="n">
+      <c r="T84" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="U84" s="2" t="n">
+      <c r="U84" s="3" t="n">
         <v>44367</v>
       </c>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="3" t="n">
         <v>44377</v>
       </c>
-      <c r="W84" s="2" t="n">
+      <c r="W84" s="3" t="n">
         <v>44403</v>
       </c>
-      <c r="X84" s="2" t="n">
+      <c r="X84" s="3" t="n">
         <v>44438</v>
       </c>
       <c r="Y84" t="inlineStr">
@@ -12041,10 +10932,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ84" t="inlineStr"/>
-      <c r="AR84" t="inlineStr"/>
-      <c r="AS84" t="inlineStr"/>
-      <c r="AT84" t="inlineStr"/>
       <c r="AU84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12100,7 +10987,6 @@
       <c r="L85" t="n">
         <v>1</v>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12109,14 +10995,11 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr">
         <is>
           <t>REPAIR 2021-RX-Misamis Occidental-001</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
           <t>July 1, 2021</t>
@@ -12137,13 +11020,11 @@
           <t>August 13, 2021</t>
         </is>
       </c>
-      <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr">
         <is>
           <t>KAYRO CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="n">
         <v>0</v>
       </c>
@@ -12194,10 +11075,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ85" t="inlineStr"/>
-      <c r="AR85" t="inlineStr"/>
-      <c r="AS85" t="inlineStr"/>
-      <c r="AT85" t="inlineStr"/>
       <c r="AU85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12253,7 +11130,6 @@
       <c r="L86" t="n">
         <v>1</v>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12262,14 +11138,11 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr">
         <is>
           <t>REPAIR 2021-RX-Misamis Occidental-002</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr">
         <is>
           <t>July 1, 2021</t>
@@ -12290,13 +11163,11 @@
           <t>August 13, 2021</t>
         </is>
       </c>
-      <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr">
         <is>
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="n">
         <v>0</v>
       </c>
@@ -12347,10 +11218,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ86" t="inlineStr"/>
-      <c r="AR86" t="inlineStr"/>
-      <c r="AS86" t="inlineStr"/>
-      <c r="AT86" t="inlineStr"/>
       <c r="AU86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12406,7 +11273,6 @@
       <c r="L87" t="n">
         <v>1</v>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12415,14 +11281,11 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
           <t>REPAIR 2021-RX-Misamis Occidental-003</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr">
         <is>
           <t>July 1, 2021</t>
@@ -12443,13 +11306,11 @@
           <t>August 13, 2021</t>
         </is>
       </c>
-      <c r="X87" t="inlineStr"/>
       <c r="Y87" t="inlineStr">
         <is>
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="n">
         <v>0</v>
       </c>
@@ -12500,10 +11361,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ87" t="inlineStr"/>
-      <c r="AR87" t="inlineStr"/>
-      <c r="AS87" t="inlineStr"/>
-      <c r="AT87" t="inlineStr"/>
       <c r="AU87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12559,7 +11416,6 @@
       <c r="L88" t="n">
         <v>1</v>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12568,11 +11424,6 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
           <t>Aug 19,2021</t>
@@ -12598,7 +11449,6 @@
           <t>TriFB</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="n">
         <v>0</v>
       </c>
@@ -12649,10 +11499,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ88" t="inlineStr"/>
-      <c r="AR88" t="inlineStr"/>
-      <c r="AS88" t="inlineStr"/>
-      <c r="AT88" t="inlineStr"/>
       <c r="AU88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12708,7 +11554,6 @@
       <c r="L89" t="n">
         <v>1</v>
       </c>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12717,11 +11562,6 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
           <t>Aug 19,2021</t>
@@ -12747,7 +11587,6 @@
           <t>TriFB</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="n">
         <v>0</v>
       </c>
@@ -12798,9 +11637,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ89" t="inlineStr"/>
-      <c r="AR89" t="inlineStr"/>
-      <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -12861,7 +11697,6 @@
       <c r="L90" t="n">
         <v>1</v>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -12870,13 +11705,10 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" s="2" t="n">
+      <c r="P90" s="3" t="n">
         <v>44507</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" s="2" t="n">
+      <c r="T90" s="3" t="n">
         <v>44343</v>
       </c>
       <c r="U90" t="inlineStr">
@@ -12884,13 +11716,13 @@
           <t>June 16,2021</t>
         </is>
       </c>
-      <c r="V90" s="2" t="n">
+      <c r="V90" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="W90" s="2" t="n">
+      <c r="W90" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="X90" s="2" t="n">
+      <c r="X90" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y90" t="inlineStr">
@@ -12953,10 +11785,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ90" t="inlineStr"/>
-      <c r="AR90" t="inlineStr"/>
-      <c r="AS90" t="inlineStr"/>
-      <c r="AT90" t="inlineStr"/>
       <c r="AU90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13012,7 +11840,6 @@
       <c r="L91" t="n">
         <v>1</v>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13021,13 +11848,10 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" s="2" t="n">
+      <c r="P91" s="3" t="n">
         <v>44507</v>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" s="2" t="n">
+      <c r="T91" s="3" t="n">
         <v>44343</v>
       </c>
       <c r="U91" t="inlineStr">
@@ -13035,13 +11859,13 @@
           <t>June 16,2021</t>
         </is>
       </c>
-      <c r="V91" s="2" t="n">
+      <c r="V91" s="3" t="n">
         <v>44375</v>
       </c>
-      <c r="W91" s="2" t="n">
+      <c r="W91" s="3" t="n">
         <v>44389</v>
       </c>
-      <c r="X91" s="2" t="n">
+      <c r="X91" s="3" t="n">
         <v>44417</v>
       </c>
       <c r="Y91" t="inlineStr">
@@ -13104,10 +11928,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ91" t="inlineStr"/>
-      <c r="AR91" t="inlineStr"/>
-      <c r="AS91" t="inlineStr"/>
-      <c r="AT91" t="inlineStr"/>
       <c r="AU91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13163,7 +11983,6 @@
       <c r="L92" t="n">
         <v>1</v>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13172,10 +11991,9 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" s="2" t="n">
+      <c r="P92" s="3" t="n">
         <v>44527</v>
       </c>
-      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
           <t>REPAIR2021-RX-OZAMIZCITY-001</t>
@@ -13186,19 +12004,19 @@
           <t>092-INFRA2021-002</t>
         </is>
       </c>
-      <c r="T92" s="2" t="n">
+      <c r="T92" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="U92" s="2" t="n">
+      <c r="U92" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="V92" s="2" t="n">
+      <c r="V92" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="W92" s="2" t="n">
+      <c r="W92" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="X92" s="2" t="n">
+      <c r="X92" s="3" t="n">
         <v>44426</v>
       </c>
       <c r="Y92" t="inlineStr">
@@ -13206,7 +12024,6 @@
           <t>JJFY Construction Services</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="n">
         <v>0</v>
       </c>
@@ -13257,10 +12074,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ92" t="inlineStr"/>
-      <c r="AR92" t="inlineStr"/>
-      <c r="AS92" t="inlineStr"/>
-      <c r="AT92" t="inlineStr"/>
       <c r="AU92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13316,7 +12129,6 @@
       <c r="L93" t="n">
         <v>1</v>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13325,10 +12137,9 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" s="2" t="n">
+      <c r="P93" s="3" t="n">
         <v>44517</v>
       </c>
-      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr">
         <is>
           <t>REPAIR2021-RX-OZAMIZCITY-002</t>
@@ -13339,19 +12150,19 @@
           <t>092-INFRA2021-003</t>
         </is>
       </c>
-      <c r="T93" s="2" t="n">
+      <c r="T93" s="3" t="n">
         <v>44362</v>
       </c>
-      <c r="U93" s="2" t="n">
+      <c r="U93" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="V93" s="2" t="n">
+      <c r="V93" s="3" t="n">
         <v>44383</v>
       </c>
-      <c r="W93" s="2" t="n">
+      <c r="W93" s="3" t="n">
         <v>44400</v>
       </c>
-      <c r="X93" s="2" t="n">
+      <c r="X93" s="3" t="n">
         <v>44426</v>
       </c>
       <c r="Y93" t="inlineStr">
@@ -13359,7 +12170,6 @@
           <t>JJFY Construction Services</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="n">
         <v>0</v>
       </c>
@@ -13410,10 +12220,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ93" t="inlineStr"/>
-      <c r="AR93" t="inlineStr"/>
-      <c r="AS93" t="inlineStr"/>
-      <c r="AT93" t="inlineStr"/>
       <c r="AU93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13469,7 +12275,6 @@
       <c r="L94" t="n">
         <v>1</v>
       </c>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13478,29 +12283,27 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" s="2" t="n">
+      <c r="P94" s="3" t="n">
         <v>44502</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr">
         <is>
           <t>REPAIR2021-RX-TANGUB CITY-001</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" s="2" t="n">
+      <c r="T94" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="U94" s="2" t="n">
+      <c r="U94" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V94" s="2" t="n">
+      <c r="V94" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="W94" s="2" t="n">
+      <c r="W94" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="X94" s="2" t="n">
+      <c r="X94" s="3" t="n">
         <v>44389</v>
       </c>
       <c r="Y94" t="inlineStr">
@@ -13508,7 +12311,6 @@
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="n">
         <v>0</v>
       </c>
@@ -13559,10 +12361,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ94" t="inlineStr"/>
-      <c r="AR94" t="inlineStr"/>
-      <c r="AS94" t="inlineStr"/>
-      <c r="AT94" t="inlineStr"/>
       <c r="AU94" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13618,7 +12416,6 @@
       <c r="L95" t="n">
         <v>1</v>
       </c>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13627,29 +12424,27 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" s="2" t="n">
+      <c r="P95" s="3" t="n">
         <v>44502</v>
       </c>
-      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr">
         <is>
           <t>REPAIR2021-RX-TANGUB CITY-002</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" s="2" t="n">
+      <c r="T95" s="3" t="n">
         <v>44349</v>
       </c>
-      <c r="U95" s="2" t="n">
+      <c r="U95" s="3" t="n">
         <v>44357</v>
       </c>
-      <c r="V95" s="2" t="n">
+      <c r="V95" s="3" t="n">
         <v>44369</v>
       </c>
-      <c r="W95" s="2" t="n">
+      <c r="W95" s="3" t="n">
         <v>44381</v>
       </c>
-      <c r="X95" s="2" t="n">
+      <c r="X95" s="3" t="n">
         <v>44389</v>
       </c>
       <c r="Y95" t="inlineStr">
@@ -13657,7 +12452,6 @@
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="n">
         <v>0</v>
       </c>
@@ -13708,10 +12502,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ95" t="inlineStr"/>
-      <c r="AR95" t="inlineStr"/>
-      <c r="AS95" t="inlineStr"/>
-      <c r="AT95" t="inlineStr"/>
       <c r="AU95" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13767,7 +12557,6 @@
       <c r="L96" t="n">
         <v>1</v>
       </c>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13776,25 +12565,22 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" s="2" t="n">
+      <c r="P96" s="3" t="n">
         <v>44525</v>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" s="2" t="n">
+      <c r="T96" s="3" t="n">
         <v>44347</v>
       </c>
-      <c r="U96" s="2" t="n">
+      <c r="U96" s="3" t="n">
         <v>44355</v>
       </c>
-      <c r="V96" s="2" t="n">
+      <c r="V96" s="3" t="n">
         <v>44368</v>
       </c>
-      <c r="W96" s="2" t="n">
+      <c r="W96" s="3" t="n">
         <v>44370</v>
       </c>
-      <c r="X96" s="2" t="n">
+      <c r="X96" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="Y96" t="inlineStr">
@@ -13802,7 +12588,6 @@
           <t>White Beard Construction</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="n">
         <v>0</v>
       </c>
@@ -13853,10 +12638,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ96" t="inlineStr"/>
-      <c r="AR96" t="inlineStr"/>
-      <c r="AS96" t="inlineStr"/>
-      <c r="AT96" t="inlineStr"/>
       <c r="AU96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -13923,10 +12704,9 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" s="2" t="n">
+      <c r="P97" s="3" t="n">
         <v>44898</v>
       </c>
-      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr">
         <is>
           <t>INFRA-01-02-2022</t>
@@ -13937,19 +12717,19 @@
           <t>INFRA-01-02-2022</t>
         </is>
       </c>
-      <c r="T97" s="2" t="n">
+      <c r="T97" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U97" s="2" t="n">
+      <c r="U97" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V97" s="2" t="n">
+      <c r="V97" s="3" t="n">
         <v>44627</v>
       </c>
-      <c r="W97" s="2" t="n">
+      <c r="W97" s="3" t="n">
         <v>44662</v>
       </c>
-      <c r="X97" s="2" t="n">
+      <c r="X97" s="3" t="n">
         <v>44718</v>
       </c>
       <c r="Y97" t="inlineStr">
@@ -14004,15 +12784,11 @@
       <c r="AN97" t="n">
         <v>0</v>
       </c>
-      <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ97" t="inlineStr"/>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
       <c r="AT97" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -14084,10 +12860,9 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" s="2" t="n">
+      <c r="P98" s="3" t="n">
         <v>44898</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr">
         <is>
           <t>INFRA-01-01-2022</t>
@@ -14098,19 +12873,19 @@
           <t>INFRA-01-01-2022</t>
         </is>
       </c>
-      <c r="T98" s="2" t="n">
+      <c r="T98" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U98" s="2" t="n">
+      <c r="U98" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V98" s="2" t="n">
+      <c r="V98" s="3" t="n">
         <v>44627</v>
       </c>
-      <c r="W98" s="2" t="n">
+      <c r="W98" s="3" t="n">
         <v>44662</v>
       </c>
-      <c r="X98" s="2" t="n">
+      <c r="X98" s="3" t="n">
         <v>44718</v>
       </c>
       <c r="Y98" t="inlineStr">
@@ -14165,15 +12940,11 @@
       <c r="AN98" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ98" t="inlineStr"/>
-      <c r="AR98" t="inlineStr"/>
-      <c r="AS98" t="inlineStr"/>
       <c r="AT98" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -14245,10 +13016,10 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" s="2" t="n">
+      <c r="P99" s="3" t="n">
         <v>44813</v>
       </c>
-      <c r="Q99" s="2" t="n">
+      <c r="Q99" s="3" t="n">
         <v>44826</v>
       </c>
       <c r="R99" t="inlineStr">
@@ -14261,19 +13032,19 @@
           <t>2022-07-0151</t>
         </is>
       </c>
-      <c r="T99" s="2" t="n">
+      <c r="T99" s="3" t="n">
         <v>44614</v>
       </c>
-      <c r="U99" s="2" t="n">
+      <c r="U99" s="3" t="n">
         <v>44629</v>
       </c>
-      <c r="V99" s="2" t="n">
+      <c r="V99" s="3" t="n">
         <v>44641</v>
       </c>
-      <c r="W99" s="2" t="n">
+      <c r="W99" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="X99" s="2" t="n">
+      <c r="X99" s="3" t="n">
         <v>44755</v>
       </c>
       <c r="Y99" t="inlineStr">
@@ -14328,15 +13099,11 @@
       <c r="AN99" t="n">
         <v>0</v>
       </c>
-      <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
       <c r="AT99" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -14408,10 +13175,10 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" s="2" t="n">
+      <c r="P100" s="3" t="n">
         <v>44813</v>
       </c>
-      <c r="Q100" s="2" t="n">
+      <c r="Q100" s="3" t="n">
         <v>44826</v>
       </c>
       <c r="R100" t="inlineStr">
@@ -14424,19 +13191,19 @@
           <t>2022-07-0152</t>
         </is>
       </c>
-      <c r="T100" s="2" t="n">
+      <c r="T100" s="3" t="n">
         <v>44614</v>
       </c>
-      <c r="U100" s="2" t="n">
+      <c r="U100" s="3" t="n">
         <v>44629</v>
       </c>
-      <c r="V100" s="2" t="n">
+      <c r="V100" s="3" t="n">
         <v>44641</v>
       </c>
-      <c r="W100" s="2" t="n">
+      <c r="W100" s="3" t="n">
         <v>44726</v>
       </c>
-      <c r="X100" s="2" t="n">
+      <c r="X100" s="3" t="n">
         <v>44755</v>
       </c>
       <c r="Y100" t="inlineStr">
@@ -14491,15 +13258,11 @@
       <c r="AN100" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ100" t="inlineStr"/>
-      <c r="AR100" t="inlineStr"/>
-      <c r="AS100" t="inlineStr"/>
       <c r="AT100" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -14571,29 +13334,27 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" s="2" t="n">
+      <c r="P101" s="3" t="n">
         <v>44875</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
           <t>Lot-4</t>
         </is>
       </c>
-      <c r="T101" s="2" t="n">
+      <c r="T101" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U101" s="2" t="n">
+      <c r="U101" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V101" s="2" t="n">
+      <c r="V101" s="3" t="n">
         <v>44628</v>
       </c>
-      <c r="W101" s="2" t="n">
+      <c r="W101" s="3" t="n">
         <v>44697</v>
       </c>
-      <c r="X101" s="2" t="n">
+      <c r="X101" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="Y101" t="inlineStr">
@@ -14601,7 +13362,6 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="n">
         <v>0</v>
       </c>
@@ -14644,15 +13404,11 @@
       <c r="AN101" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ101" t="inlineStr"/>
-      <c r="AR101" t="inlineStr"/>
-      <c r="AS101" t="inlineStr"/>
       <c r="AT101" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -14724,31 +13480,30 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" s="2" t="n">
+      <c r="P102" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="Q102" s="2" t="n">
+      <c r="Q102" s="3" t="n">
         <v>44859</v>
       </c>
-      <c r="R102" t="inlineStr"/>
       <c r="S102" t="inlineStr">
         <is>
           <t>Lot-2</t>
         </is>
       </c>
-      <c r="T102" s="2" t="n">
+      <c r="T102" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U102" s="2" t="n">
+      <c r="U102" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V102" s="2" t="n">
+      <c r="V102" s="3" t="n">
         <v>44628</v>
       </c>
-      <c r="W102" s="2" t="n">
+      <c r="W102" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="X102" s="2" t="n">
+      <c r="X102" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y102" t="inlineStr">
@@ -14756,7 +13511,6 @@
           <t>ABRAHAM-BM Construction</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="n">
         <v>0</v>
       </c>
@@ -14799,15 +13553,11 @@
       <c r="AN102" t="n">
         <v>0</v>
       </c>
-      <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ102" t="inlineStr"/>
-      <c r="AR102" t="inlineStr"/>
-      <c r="AS102" t="inlineStr"/>
       <c r="AT102" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -14879,29 +13629,27 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" s="2" t="n">
+      <c r="P103" s="3" t="n">
         <v>44874</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
       <c r="S103" t="inlineStr">
         <is>
           <t>Lot-5</t>
         </is>
       </c>
-      <c r="T103" s="2" t="n">
+      <c r="T103" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U103" s="2" t="n">
+      <c r="U103" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="3" t="n">
         <v>44628</v>
       </c>
-      <c r="W103" s="2" t="n">
+      <c r="W103" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="X103" s="2" t="n">
+      <c r="X103" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y103" t="inlineStr">
@@ -14956,15 +13704,11 @@
       <c r="AN103" t="n">
         <v>0</v>
       </c>
-      <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ103" t="inlineStr"/>
-      <c r="AR103" t="inlineStr"/>
-      <c r="AS103" t="inlineStr"/>
       <c r="AT103" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -15036,31 +13780,30 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" s="2" t="n">
+      <c r="P104" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="Q104" s="2" t="n">
+      <c r="Q104" s="3" t="n">
         <v>44894</v>
       </c>
-      <c r="R104" t="inlineStr"/>
       <c r="S104" t="inlineStr">
         <is>
           <t>Lot-1</t>
         </is>
       </c>
-      <c r="T104" s="2" t="n">
+      <c r="T104" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U104" s="2" t="n">
+      <c r="U104" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V104" s="2" t="n">
+      <c r="V104" s="3" t="n">
         <v>44628</v>
       </c>
-      <c r="W104" s="2" t="n">
+      <c r="W104" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="X104" s="2" t="n">
+      <c r="X104" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y104" t="inlineStr">
@@ -15068,7 +13811,6 @@
           <t>SBM Builder</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="n">
         <v>0</v>
       </c>
@@ -15111,15 +13853,11 @@
       <c r="AN104" t="n">
         <v>0</v>
       </c>
-      <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
       <c r="AT104" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -15191,27 +13929,25 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" s="2" t="n">
+      <c r="P105" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="Q105" s="2" t="n">
+      <c r="Q105" s="3" t="n">
         <v>44894</v>
       </c>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" s="2" t="n">
+      <c r="T105" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U105" s="2" t="n">
+      <c r="U105" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V105" s="2" t="n">
+      <c r="V105" s="3" t="n">
         <v>44628</v>
       </c>
-      <c r="W105" s="2" t="n">
+      <c r="W105" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="X105" s="2" t="n">
+      <c r="X105" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y105" t="inlineStr">
@@ -15219,7 +13955,6 @@
           <t>SBM Builder</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="n">
         <v>0</v>
       </c>
@@ -15262,15 +13997,11 @@
       <c r="AN105" t="n">
         <v>0</v>
       </c>
-      <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ105" t="inlineStr"/>
-      <c r="AR105" t="inlineStr"/>
-      <c r="AS105" t="inlineStr"/>
       <c r="AT105" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -15342,29 +14073,27 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" s="2" t="n">
+      <c r="P106" s="3" t="n">
         <v>44845</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
       <c r="S106" t="inlineStr">
         <is>
           <t>Lot-3</t>
         </is>
       </c>
-      <c r="T106" s="2" t="n">
+      <c r="T106" s="3" t="n">
         <v>44607</v>
       </c>
-      <c r="U106" s="2" t="n">
+      <c r="U106" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="V106" s="2" t="n">
+      <c r="V106" s="3" t="n">
         <v>44628</v>
       </c>
-      <c r="W106" s="2" t="n">
+      <c r="W106" s="3" t="n">
         <v>44669</v>
       </c>
-      <c r="X106" s="2" t="n">
+      <c r="X106" s="3" t="n">
         <v>44732</v>
       </c>
       <c r="Y106" t="inlineStr">
@@ -15419,15 +14148,11 @@
       <c r="AN106" t="n">
         <v>0</v>
       </c>
-      <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ106" t="inlineStr"/>
-      <c r="AR106" t="inlineStr"/>
-      <c r="AS106" t="inlineStr"/>
       <c r="AT106" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -15488,7 +14213,6 @@
       <c r="L107" t="n">
         <v>1</v>
       </c>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15497,10 +14221,10 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" s="2" t="n">
+      <c r="P107" s="3" t="n">
         <v>44851</v>
       </c>
-      <c r="Q107" s="2" t="n">
+      <c r="Q107" s="3" t="n">
         <v>44876</v>
       </c>
       <c r="R107" t="inlineStr">
@@ -15513,19 +14237,19 @@
           <t>010-2022</t>
         </is>
       </c>
-      <c r="T107" s="2" t="n">
+      <c r="T107" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="U107" s="2" t="n">
+      <c r="U107" s="3" t="n">
         <v>44622</v>
       </c>
-      <c r="V107" s="2" t="n">
+      <c r="V107" s="3" t="n">
         <v>44634</v>
       </c>
-      <c r="W107" s="2" t="n">
+      <c r="W107" s="3" t="n">
         <v>44691</v>
       </c>
-      <c r="X107" s="2" t="n">
+      <c r="X107" s="3" t="n">
         <v>44768</v>
       </c>
       <c r="Y107" t="inlineStr">
@@ -15580,15 +14304,11 @@
       <c r="AN107" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ107" t="inlineStr"/>
-      <c r="AR107" t="inlineStr"/>
-      <c r="AS107" t="inlineStr"/>
       <c r="AT107" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -15649,7 +14369,6 @@
       <c r="L108" t="n">
         <v>1</v>
       </c>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15658,10 +14377,9 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" s="2" t="n">
+      <c r="P108" s="3" t="n">
         <v>44896</v>
       </c>
-      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="inlineStr">
         <is>
           <t>009-2022</t>
@@ -15672,19 +14390,19 @@
           <t>009-2022</t>
         </is>
       </c>
-      <c r="T108" s="2" t="n">
+      <c r="T108" s="3" t="n">
         <v>44615</v>
       </c>
-      <c r="U108" s="2" t="n">
+      <c r="U108" s="3" t="n">
         <v>44622</v>
       </c>
-      <c r="V108" s="2" t="n">
+      <c r="V108" s="3" t="n">
         <v>44634</v>
       </c>
-      <c r="W108" s="2" t="n">
+      <c r="W108" s="3" t="n">
         <v>44691</v>
       </c>
-      <c r="X108" s="2" t="n">
+      <c r="X108" s="3" t="n">
         <v>44768</v>
       </c>
       <c r="Y108" t="inlineStr">
@@ -15745,9 +14463,6 @@
       <c r="AP108" t="n">
         <v>7.23</v>
       </c>
-      <c r="AQ108" t="inlineStr"/>
-      <c r="AR108" t="inlineStr"/>
-      <c r="AS108" t="inlineStr"/>
       <c r="AT108" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -15819,25 +14534,22 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" s="2" t="n">
+      <c r="P109" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" s="2" t="n">
+      <c r="T109" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U109" s="2" t="n">
+      <c r="U109" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V109" s="2" t="n">
+      <c r="V109" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W109" s="2" t="n">
+      <c r="W109" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X109" s="2" t="n">
+      <c r="X109" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="Y109" t="inlineStr">
@@ -15898,10 +14610,6 @@
       <c r="AP109" t="n">
         <v>2.24</v>
       </c>
-      <c r="AQ109" t="inlineStr"/>
-      <c r="AR109" t="inlineStr"/>
-      <c r="AS109" t="inlineStr"/>
-      <c r="AT109" t="inlineStr"/>
       <c r="AU109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -15968,25 +14676,22 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" s="2" t="n">
+      <c r="P110" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" s="2" t="n">
+      <c r="T110" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U110" s="2" t="n">
+      <c r="U110" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V110" s="2" t="n">
+      <c r="V110" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W110" s="2" t="n">
+      <c r="W110" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X110" s="2" t="n">
+      <c r="X110" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="Y110" t="inlineStr">
@@ -15994,7 +14699,6 @@
           <t>GREEN BUILDER AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="n">
         <v>0</v>
       </c>
@@ -16043,9 +14747,6 @@
       <c r="AP110" t="n">
         <v>1.24</v>
       </c>
-      <c r="AQ110" t="inlineStr"/>
-      <c r="AR110" t="inlineStr"/>
-      <c r="AS110" t="inlineStr"/>
       <c r="AT110" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -16117,25 +14818,22 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" s="2" t="n">
+      <c r="P111" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" s="2" t="n">
+      <c r="T111" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U111" s="2" t="n">
+      <c r="U111" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V111" s="2" t="n">
+      <c r="V111" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W111" s="2" t="n">
+      <c r="W111" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X111" s="2" t="n">
+      <c r="X111" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="Y111" t="inlineStr">
@@ -16143,7 +14841,6 @@
           <t>GREEN BUILDER AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="n">
         <v>0</v>
       </c>
@@ -16192,9 +14889,6 @@
       <c r="AP111" t="n">
         <v>1.24</v>
       </c>
-      <c r="AQ111" t="inlineStr"/>
-      <c r="AR111" t="inlineStr"/>
-      <c r="AS111" t="inlineStr"/>
       <c r="AT111" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -16266,25 +14960,22 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" s="2" t="n">
+      <c r="P112" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" s="2" t="n">
+      <c r="T112" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U112" s="2" t="n">
+      <c r="U112" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V112" s="2" t="n">
+      <c r="V112" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W112" s="2" t="n">
+      <c r="W112" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X112" s="2" t="n">
+      <c r="X112" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="Y112" t="inlineStr">
@@ -16345,9 +15036,6 @@
       <c r="AP112" t="n">
         <v>7.23</v>
       </c>
-      <c r="AQ112" t="inlineStr"/>
-      <c r="AR112" t="inlineStr"/>
-      <c r="AS112" t="inlineStr"/>
       <c r="AT112" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -16419,25 +15107,22 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
-      <c r="P113" s="2" t="n">
+      <c r="P113" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" s="2" t="n">
+      <c r="T113" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U113" s="2" t="n">
+      <c r="U113" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V113" s="2" t="n">
+      <c r="V113" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W113" s="2" t="n">
+      <c r="W113" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X113" s="2" t="n">
+      <c r="X113" s="3" t="n">
         <v>44858</v>
       </c>
       <c r="Y113" t="inlineStr">
@@ -16445,7 +15130,6 @@
           <t xml:space="preserve">ALEBON GENUINE MERCHANDIZING INC. </t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="n">
         <v>0</v>
       </c>
@@ -16494,9 +15178,6 @@
       <c r="AP113" t="n">
         <v>3.23</v>
       </c>
-      <c r="AQ113" t="inlineStr"/>
-      <c r="AR113" t="inlineStr"/>
-      <c r="AS113" t="inlineStr"/>
       <c r="AT113" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -16568,25 +15249,22 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
-      <c r="P114" s="2" t="n">
+      <c r="P114" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" s="2" t="n">
+      <c r="T114" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U114" s="2" t="n">
+      <c r="U114" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V114" s="2" t="n">
+      <c r="V114" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W114" s="2" t="n">
+      <c r="W114" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X114" s="2" t="n">
+      <c r="X114" s="3" t="n">
         <v>44858</v>
       </c>
       <c r="Y114" t="inlineStr">
@@ -16647,9 +15325,6 @@
       <c r="AP114" t="n">
         <v>10.23</v>
       </c>
-      <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
       <c r="AT114" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -16721,25 +15396,22 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" s="2" t="n">
+      <c r="P115" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" s="2" t="n">
+      <c r="T115" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U115" s="2" t="n">
+      <c r="U115" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V115" s="2" t="n">
+      <c r="V115" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W115" s="2" t="n">
+      <c r="W115" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X115" s="2" t="n">
+      <c r="X115" s="3" t="n">
         <v>44858</v>
       </c>
       <c r="Y115" t="inlineStr">
@@ -16747,7 +15419,6 @@
           <t xml:space="preserve">ALEBON GENUINE MERCHANDIZING INC. </t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="n">
         <v>0</v>
       </c>
@@ -16796,9 +15467,6 @@
       <c r="AP115" t="n">
         <v>5.23</v>
       </c>
-      <c r="AQ115" t="inlineStr"/>
-      <c r="AR115" t="inlineStr"/>
-      <c r="AS115" t="inlineStr"/>
       <c r="AT115" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -16870,27 +15538,25 @@
       <c r="O116" t="n">
         <v>1</v>
       </c>
-      <c r="P116" s="2" t="n">
+      <c r="P116" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q116" s="2" t="n">
+      <c r="Q116" s="3" t="n">
         <v>44890</v>
       </c>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" s="2" t="n">
+      <c r="T116" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U116" s="2" t="n">
+      <c r="U116" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V116" s="2" t="n">
+      <c r="V116" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W116" s="2" t="n">
+      <c r="W116" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X116" s="2" t="n">
+      <c r="X116" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="Y116" t="inlineStr">
@@ -16898,7 +15564,6 @@
           <t xml:space="preserve">JDE CONSTRUCTION </t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="n">
         <v>0</v>
       </c>
@@ -16941,15 +15606,11 @@
       <c r="AN116" t="n">
         <v>0</v>
       </c>
-      <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ116" t="inlineStr"/>
-      <c r="AR116" t="inlineStr"/>
-      <c r="AS116" t="inlineStr"/>
       <c r="AT116" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -17021,27 +15682,25 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
-      <c r="P117" s="2" t="n">
+      <c r="P117" s="3" t="n">
         <v>44904</v>
       </c>
-      <c r="Q117" s="2" t="n">
+      <c r="Q117" s="3" t="n">
         <v>44869</v>
       </c>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" s="2" t="n">
+      <c r="T117" s="3" t="n">
         <v>44739</v>
       </c>
-      <c r="U117" s="2" t="n">
+      <c r="U117" s="3" t="n">
         <v>44747</v>
       </c>
-      <c r="V117" s="2" t="n">
+      <c r="V117" s="3" t="n">
         <v>44760</v>
       </c>
-      <c r="W117" s="2" t="n">
+      <c r="W117" s="3" t="n">
         <v>44775</v>
       </c>
-      <c r="X117" s="2" t="n">
+      <c r="X117" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="Y117" t="inlineStr">
@@ -17049,7 +15708,6 @@
           <t xml:space="preserve">JDE CONSTRUCTION </t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="n">
         <v>0</v>
       </c>
@@ -17092,15 +15750,11 @@
       <c r="AN117" t="n">
         <v>0</v>
       </c>
-      <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr">
         <is>
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AQ117" t="inlineStr"/>
-      <c r="AR117" t="inlineStr"/>
-      <c r="AS117" t="inlineStr"/>
       <c r="AT117" t="inlineStr">
         <is>
           <t>CY 2022</t>
@@ -17176,10 +15830,10 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" s="2" t="n">
+      <c r="P118" s="3" t="n">
         <v>45324</v>
       </c>
-      <c r="Q118" s="2" t="n">
+      <c r="Q118" s="3" t="n">
         <v>45351</v>
       </c>
       <c r="R118" t="inlineStr">
@@ -17192,17 +15846,16 @@
           <t>OSEC-10-23-4914</t>
         </is>
       </c>
-      <c r="T118" s="2" t="n">
+      <c r="T118" s="3" t="n">
         <v>45212</v>
       </c>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" s="2" t="n">
+      <c r="V118" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="W118" s="2" t="n">
+      <c r="W118" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="X118" s="2" t="n">
+      <c r="X118" s="3" t="n">
         <v>45294</v>
       </c>
       <c r="Y118" t="inlineStr">
@@ -17210,7 +15863,6 @@
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="n">
         <v>0</v>
       </c>
@@ -17253,14 +15905,9 @@
       <c r="AN118" t="n">
         <v>0</v>
       </c>
-      <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="n">
         <v>3.24</v>
       </c>
-      <c r="AQ118" t="inlineStr"/>
-      <c r="AR118" t="inlineStr"/>
-      <c r="AS118" t="inlineStr"/>
-      <c r="AT118" t="inlineStr"/>
       <c r="AU118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17320,7 +15967,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17329,17 +15975,6 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="n">
         <v>0</v>
       </c>
@@ -17382,14 +16017,9 @@
       <c r="AN119" t="n">
         <v>0</v>
       </c>
-      <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ119" t="inlineStr"/>
-      <c r="AR119" t="inlineStr"/>
-      <c r="AS119" t="inlineStr"/>
-      <c r="AT119" t="inlineStr"/>
       <c r="AU119" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17449,7 +16079,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17458,17 +16087,6 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="n">
         <v>0</v>
       </c>
@@ -17511,14 +16129,9 @@
       <c r="AN120" t="n">
         <v>0</v>
       </c>
-      <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ120" t="inlineStr"/>
-      <c r="AR120" t="inlineStr"/>
-      <c r="AS120" t="inlineStr"/>
-      <c r="AT120" t="inlineStr"/>
       <c r="AU120" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17578,7 +16191,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17587,17 +16199,6 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="n">
         <v>0</v>
       </c>
@@ -17640,14 +16241,9 @@
       <c r="AN121" t="n">
         <v>0</v>
       </c>
-      <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ121" t="inlineStr"/>
-      <c r="AR121" t="inlineStr"/>
-      <c r="AS121" t="inlineStr"/>
-      <c r="AT121" t="inlineStr"/>
       <c r="AU121" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -17718,10 +16314,10 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" s="2" t="n">
+      <c r="P122" s="3" t="n">
         <v>45220</v>
       </c>
-      <c r="Q122" s="2" t="n">
+      <c r="Q122" s="3" t="n">
         <v>45220</v>
       </c>
       <c r="R122" t="inlineStr">
@@ -17734,19 +16330,19 @@
           <t>23KL0096</t>
         </is>
       </c>
-      <c r="T122" s="2" t="n">
+      <c r="T122" s="3" t="n">
         <v>45063</v>
       </c>
-      <c r="U122" s="2" t="n">
+      <c r="U122" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="V122" s="2" t="n">
+      <c r="V122" s="3" t="n">
         <v>45092</v>
       </c>
-      <c r="W122" s="2" t="n">
+      <c r="W122" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="X122" s="2" t="n">
+      <c r="X122" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="Y122" t="inlineStr">
@@ -17801,13 +16397,9 @@
       <c r="AN122" t="n">
         <v>0</v>
       </c>
-      <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="n">
         <v>11.23</v>
       </c>
-      <c r="AQ122" t="inlineStr"/>
-      <c r="AR122" t="inlineStr"/>
-      <c r="AS122" t="inlineStr"/>
       <c r="AT122" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -17883,10 +16475,10 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" s="2" t="n">
+      <c r="P123" s="3" t="n">
         <v>45220</v>
       </c>
-      <c r="Q123" s="2" t="n">
+      <c r="Q123" s="3" t="n">
         <v>45220</v>
       </c>
       <c r="R123" t="inlineStr">
@@ -17899,19 +16491,19 @@
           <t>23KL0097</t>
         </is>
       </c>
-      <c r="T123" s="2" t="n">
+      <c r="T123" s="3" t="n">
         <v>45063</v>
       </c>
-      <c r="U123" s="2" t="n">
+      <c r="U123" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="V123" s="2" t="n">
+      <c r="V123" s="3" t="n">
         <v>45092</v>
       </c>
-      <c r="W123" s="2" t="n">
+      <c r="W123" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="X123" s="2" t="n">
+      <c r="X123" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="Y123" t="inlineStr">
@@ -17966,13 +16558,9 @@
       <c r="AN123" t="n">
         <v>0</v>
       </c>
-      <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="n">
         <v>11.23</v>
       </c>
-      <c r="AQ123" t="inlineStr"/>
-      <c r="AR123" t="inlineStr"/>
-      <c r="AS123" t="inlineStr"/>
       <c r="AT123" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -18048,10 +16636,10 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" s="2" t="n">
+      <c r="P124" s="3" t="n">
         <v>45220</v>
       </c>
-      <c r="Q124" s="2" t="n">
+      <c r="Q124" s="3" t="n">
         <v>45220</v>
       </c>
       <c r="R124" t="inlineStr">
@@ -18064,19 +16652,19 @@
           <t>23KL0095</t>
         </is>
       </c>
-      <c r="T124" s="2" t="n">
+      <c r="T124" s="3" t="n">
         <v>45063</v>
       </c>
-      <c r="U124" s="2" t="n">
+      <c r="U124" s="3" t="n">
         <v>45070</v>
       </c>
-      <c r="V124" s="2" t="n">
+      <c r="V124" s="3" t="n">
         <v>45092</v>
       </c>
-      <c r="W124" s="2" t="n">
+      <c r="W124" s="3" t="n">
         <v>45155</v>
       </c>
-      <c r="X124" s="2" t="n">
+      <c r="X124" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="Y124" t="inlineStr">
@@ -18131,13 +16719,9 @@
       <c r="AN124" t="n">
         <v>0</v>
       </c>
-      <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="n">
         <v>11.23</v>
       </c>
-      <c r="AQ124" t="inlineStr"/>
-      <c r="AR124" t="inlineStr"/>
-      <c r="AS124" t="inlineStr"/>
       <c r="AT124" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -18202,7 +16786,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18211,17 +16794,6 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="n">
         <v>0</v>
       </c>
@@ -18264,14 +16836,9 @@
       <c r="AN125" t="n">
         <v>0</v>
       </c>
-      <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="n">
         <v>3.24</v>
       </c>
-      <c r="AQ125" t="inlineStr"/>
-      <c r="AR125" t="inlineStr"/>
-      <c r="AS125" t="inlineStr"/>
-      <c r="AT125" t="inlineStr"/>
       <c r="AU125" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18331,7 +16898,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18340,17 +16906,6 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="n">
         <v>0</v>
       </c>
@@ -18393,14 +16948,9 @@
       <c r="AN126" t="n">
         <v>0</v>
       </c>
-      <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="n">
         <v>3.24</v>
       </c>
-      <c r="AQ126" t="inlineStr"/>
-      <c r="AR126" t="inlineStr"/>
-      <c r="AS126" t="inlineStr"/>
-      <c r="AT126" t="inlineStr"/>
       <c r="AU126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18460,7 +17010,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18469,17 +17018,6 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="n">
         <v>0</v>
       </c>
@@ -18522,14 +17060,9 @@
       <c r="AN127" t="n">
         <v>0</v>
       </c>
-      <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="n">
         <v>3.24</v>
       </c>
-      <c r="AQ127" t="inlineStr"/>
-      <c r="AR127" t="inlineStr"/>
-      <c r="AS127" t="inlineStr"/>
-      <c r="AT127" t="inlineStr"/>
       <c r="AU127" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18589,7 +17122,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18598,17 +17130,6 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
       <c r="AA128" t="n">
         <v>0</v>
       </c>
@@ -18651,14 +17172,9 @@
       <c r="AN128" t="n">
         <v>0</v>
       </c>
-      <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ128" t="inlineStr"/>
-      <c r="AR128" t="inlineStr"/>
-      <c r="AS128" t="inlineStr"/>
-      <c r="AT128" t="inlineStr"/>
       <c r="AU128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18718,7 +17234,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18727,17 +17242,6 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="n">
         <v>0</v>
       </c>
@@ -18780,14 +17284,9 @@
       <c r="AN129" t="n">
         <v>0</v>
       </c>
-      <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ129" t="inlineStr"/>
-      <c r="AR129" t="inlineStr"/>
-      <c r="AS129" t="inlineStr"/>
-      <c r="AT129" t="inlineStr"/>
       <c r="AU129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18847,7 +17346,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18856,17 +17354,6 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
       <c r="AA130" t="n">
         <v>0</v>
       </c>
@@ -18909,14 +17396,9 @@
       <c r="AN130" t="n">
         <v>0</v>
       </c>
-      <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ130" t="inlineStr"/>
-      <c r="AR130" t="inlineStr"/>
-      <c r="AS130" t="inlineStr"/>
-      <c r="AT130" t="inlineStr"/>
       <c r="AU130" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18976,7 +17458,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -18985,17 +17466,6 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="n">
         <v>0</v>
       </c>
@@ -19038,14 +17508,9 @@
       <c r="AN131" t="n">
         <v>0</v>
       </c>
-      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="n">
         <v>7.24</v>
       </c>
-      <c r="AQ131" t="inlineStr"/>
-      <c r="AR131" t="inlineStr"/>
-      <c r="AS131" t="inlineStr"/>
-      <c r="AT131" t="inlineStr"/>
       <c r="AU131" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19105,7 +17570,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19114,17 +17578,6 @@
       <c r="O132" t="n">
         <v>1</v>
       </c>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="n">
         <v>0</v>
       </c>
@@ -19167,14 +17620,9 @@
       <c r="AN132" t="n">
         <v>0</v>
       </c>
-      <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="n">
         <v>3.24</v>
       </c>
-      <c r="AQ132" t="inlineStr"/>
-      <c r="AR132" t="inlineStr"/>
-      <c r="AS132" t="inlineStr"/>
-      <c r="AT132" t="inlineStr"/>
       <c r="AU132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19234,7 +17682,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19243,16 +17690,6 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
           <t>With rectification works</t>
@@ -19300,14 +17737,9 @@
       <c r="AN133" t="n">
         <v>0</v>
       </c>
-      <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ133" t="inlineStr"/>
-      <c r="AR133" t="inlineStr"/>
-      <c r="AS133" t="inlineStr"/>
-      <c r="AT133" t="inlineStr"/>
       <c r="AU133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19367,7 +17799,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19376,16 +17807,6 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
           <t>With rectification works</t>
@@ -19433,14 +17854,9 @@
       <c r="AN134" t="n">
         <v>0</v>
       </c>
-      <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ134" t="inlineStr"/>
-      <c r="AR134" t="inlineStr"/>
-      <c r="AS134" t="inlineStr"/>
-      <c r="AT134" t="inlineStr"/>
       <c r="AU134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19500,7 +17916,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19509,16 +17924,6 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
       <c r="Z135" t="inlineStr">
         <is>
           <t>With rectification works</t>
@@ -19566,14 +17971,9 @@
       <c r="AN135" t="n">
         <v>0</v>
       </c>
-      <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="n">
         <v>10.24</v>
       </c>
-      <c r="AQ135" t="inlineStr"/>
-      <c r="AR135" t="inlineStr"/>
-      <c r="AS135" t="inlineStr"/>
-      <c r="AT135" t="inlineStr"/>
       <c r="AU135" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19633,7 +18033,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -19642,16 +18041,6 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19699,14 +18088,9 @@
       <c r="AN136" t="n">
         <v>0</v>
       </c>
-      <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
-      <c r="AS136" t="inlineStr"/>
-      <c r="AT136" t="inlineStr"/>
       <c r="AU136" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -19782,7 +18166,7 @@
           <t>19/11/2023</t>
         </is>
       </c>
-      <c r="Q137" s="2" t="n">
+      <c r="Q137" s="3" t="n">
         <v>45271</v>
       </c>
       <c r="R137" t="inlineStr">
@@ -19795,13 +18179,6 @@
           <t>23KK0187</t>
         </is>
       </c>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="n">
         <v>0</v>
       </c>
@@ -19844,13 +18221,9 @@
       <c r="AN137" t="n">
         <v>0</v>
       </c>
-      <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="n">
         <v>2.24</v>
       </c>
-      <c r="AQ137" t="inlineStr"/>
-      <c r="AR137" t="inlineStr"/>
-      <c r="AS137" t="inlineStr"/>
       <c r="AT137" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -19926,7 +18299,7 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" s="2" t="n">
+      <c r="P138" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="Q138" t="inlineStr">
@@ -19944,13 +18317,6 @@
           <t>23KK0188</t>
         </is>
       </c>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
       <c r="AA138" t="n">
         <v>0</v>
       </c>
@@ -19993,13 +18359,9 @@
       <c r="AN138" t="n">
         <v>0</v>
       </c>
-      <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="n">
         <v>12.23</v>
       </c>
-      <c r="AQ138" t="inlineStr"/>
-      <c r="AR138" t="inlineStr"/>
-      <c r="AS138" t="inlineStr"/>
       <c r="AT138" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -20075,7 +18437,7 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="P139" s="2" t="n">
+      <c r="P139" s="3" t="n">
         <v>44938</v>
       </c>
       <c r="Q139" t="inlineStr">
@@ -20093,13 +18455,6 @@
           <t>23KK0184</t>
         </is>
       </c>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
       <c r="AA139" t="n">
         <v>0</v>
       </c>
@@ -20142,13 +18497,9 @@
       <c r="AN139" t="n">
         <v>0</v>
       </c>
-      <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="n">
         <v>2.24</v>
       </c>
-      <c r="AQ139" t="inlineStr"/>
-      <c r="AR139" t="inlineStr"/>
-      <c r="AS139" t="inlineStr"/>
       <c r="AT139" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -20244,12 +18595,6 @@
           <t>23KK0185</t>
         </is>
       </c>
-      <c r="T140" t="inlineStr"/>
-      <c r="U140" t="inlineStr"/>
-      <c r="V140" t="inlineStr"/>
-      <c r="W140" t="inlineStr"/>
-      <c r="X140" t="inlineStr"/>
-      <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
           <t>Ongoing Site inspection by the Engineers from Division of Misamis Oriental</t>
@@ -20297,14 +18642,9 @@
       <c r="AN140" t="n">
         <v>0</v>
       </c>
-      <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="n">
         <v>11.24</v>
       </c>
-      <c r="AQ140" t="inlineStr"/>
-      <c r="AR140" t="inlineStr"/>
-      <c r="AS140" t="inlineStr"/>
-      <c r="AT140" t="inlineStr"/>
       <c r="AU140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20375,7 +18715,7 @@
       <c r="O141" t="n">
         <v>1</v>
       </c>
-      <c r="P141" s="2" t="n">
+      <c r="P141" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="Q141" t="inlineStr">
@@ -20393,12 +18733,6 @@
           <t>23KK0195</t>
         </is>
       </c>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
           <t>Ongoing Site inspection by the Engineers from Division of Misamis Oriental</t>
@@ -20446,14 +18780,9 @@
       <c r="AN141" t="n">
         <v>0</v>
       </c>
-      <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="n">
         <v>4.24</v>
       </c>
-      <c r="AQ141" t="inlineStr"/>
-      <c r="AR141" t="inlineStr"/>
-      <c r="AS141" t="inlineStr"/>
-      <c r="AT141" t="inlineStr"/>
       <c r="AU141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20524,10 +18853,10 @@
       <c r="O142" t="n">
         <v>1</v>
       </c>
-      <c r="P142" s="2" t="n">
+      <c r="P142" s="3" t="n">
         <v>45028</v>
       </c>
-      <c r="Q142" s="2" t="n">
+      <c r="Q142" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="R142" t="inlineStr">
@@ -20540,12 +18869,6 @@
           <t>23KK0189</t>
         </is>
       </c>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
           <t>Ongoing Site inspection by the Engineers from Division of Misamis Oriental</t>
@@ -20593,14 +18916,9 @@
       <c r="AN142" t="n">
         <v>0</v>
       </c>
-      <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="n">
         <v>4.24</v>
       </c>
-      <c r="AQ142" t="inlineStr"/>
-      <c r="AR142" t="inlineStr"/>
-      <c r="AS142" t="inlineStr"/>
-      <c r="AT142" t="inlineStr"/>
       <c r="AU142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20660,7 +18978,6 @@
           <t>DEPED (Batch 1)</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20669,10 +18986,10 @@
       <c r="O143" t="n">
         <v>1</v>
       </c>
-      <c r="P143" s="2" t="n">
+      <c r="P143" s="3" t="n">
         <v>45367</v>
       </c>
-      <c r="Q143" s="2" t="n">
+      <c r="Q143" s="3" t="n">
         <v>45369</v>
       </c>
       <c r="R143" t="inlineStr">
@@ -20680,14 +18997,10 @@
           <t>G2PB Repair 2023-01</t>
         </is>
       </c>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" s="2" t="n">
+      <c r="V143" s="3" t="n">
         <v>45334</v>
       </c>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" s="2" t="n">
+      <c r="X143" s="3" t="n">
         <v>45338</v>
       </c>
       <c r="Y143" t="inlineStr">
@@ -20695,7 +19008,6 @@
           <t>RI Construction Services</t>
         </is>
       </c>
-      <c r="Z143" t="inlineStr"/>
       <c r="AA143" t="n">
         <v>0</v>
       </c>
@@ -20738,14 +19050,9 @@
       <c r="AN143" t="n">
         <v>0</v>
       </c>
-      <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="n">
         <v>4.24</v>
       </c>
-      <c r="AQ143" t="inlineStr"/>
-      <c r="AR143" t="inlineStr"/>
-      <c r="AS143" t="inlineStr"/>
-      <c r="AT143" t="inlineStr"/>
       <c r="AU143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20816,7 +19123,7 @@
       <c r="O144" t="n">
         <v>1</v>
       </c>
-      <c r="P144" s="2" t="n">
+      <c r="P144" s="3" t="n">
         <v>45028</v>
       </c>
       <c r="Q144" t="inlineStr">
@@ -20834,13 +19141,6 @@
           <t>23KK0196</t>
         </is>
       </c>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
-      <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="n">
         <v>0</v>
       </c>
@@ -20883,13 +19183,9 @@
       <c r="AN144" t="n">
         <v>0</v>
       </c>
-      <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="n">
         <v>2.24</v>
       </c>
-      <c r="AQ144" t="inlineStr"/>
-      <c r="AR144" t="inlineStr"/>
-      <c r="AS144" t="inlineStr"/>
       <c r="AT144" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -20954,7 +19250,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -20963,16 +19258,6 @@
       <c r="O145" t="n">
         <v>1</v>
       </c>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
-      <c r="U145" t="inlineStr"/>
-      <c r="V145" t="inlineStr"/>
-      <c r="W145" t="inlineStr"/>
-      <c r="X145" t="inlineStr"/>
-      <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on report submitted by DPWH and was checked on January 31, 2024. </t>
@@ -21020,13 +19305,9 @@
       <c r="AN145" t="n">
         <v>0</v>
       </c>
-      <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="n">
         <v>11.23</v>
       </c>
-      <c r="AQ145" t="inlineStr"/>
-      <c r="AR145" t="inlineStr"/>
-      <c r="AS145" t="inlineStr"/>
       <c r="AT145" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -21091,7 +19372,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21100,16 +19380,6 @@
       <c r="O146" t="n">
         <v>1</v>
       </c>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr">
         <is>
           <t xml:space="preserve">Based on report submitted by DPWH and was checked on January 31, 2024. </t>
@@ -21157,13 +19427,9 @@
       <c r="AN146" t="n">
         <v>0</v>
       </c>
-      <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="n">
         <v>11.23</v>
       </c>
-      <c r="AQ146" t="inlineStr"/>
-      <c r="AR146" t="inlineStr"/>
-      <c r="AS146" t="inlineStr"/>
       <c r="AT146" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -21228,7 +19494,6 @@
           <t>DPWH (Batch 1)</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21237,16 +19502,6 @@
       <c r="O147" t="n">
         <v>1</v>
       </c>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
-      <c r="U147" t="inlineStr"/>
-      <c r="V147" t="inlineStr"/>
-      <c r="W147" t="inlineStr"/>
-      <c r="X147" t="inlineStr"/>
-      <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
           <t>Previous accomplishment was based on the report submitted by DPWH. It was corrected during the joint inspection conducted on January 31, 2024.</t>
@@ -21294,13 +19549,9 @@
       <c r="AN147" t="n">
         <v>0</v>
       </c>
-      <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="n">
         <v>11.23</v>
       </c>
-      <c r="AQ147" t="inlineStr"/>
-      <c r="AR147" t="inlineStr"/>
-      <c r="AS147" t="inlineStr"/>
       <c r="AT147" t="inlineStr">
         <is>
           <t>CY 2023</t>
@@ -21374,10 +19625,10 @@
       <c r="O148" t="n">
         <v>1</v>
       </c>
-      <c r="P148" s="2" t="n">
+      <c r="P148" s="3" t="n">
         <v>45666</v>
       </c>
-      <c r="Q148" s="2" t="n">
+      <c r="Q148" s="3" t="n">
         <v>45696</v>
       </c>
       <c r="R148" t="inlineStr">
@@ -21390,19 +19641,19 @@
           <t>046-2024</t>
         </is>
       </c>
-      <c r="T148" s="2" t="n">
+      <c r="T148" s="3" t="n">
         <v>45472</v>
       </c>
-      <c r="U148" s="2" t="n">
+      <c r="U148" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="V148" s="2" t="n">
+      <c r="V148" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="W148" s="2" t="n">
+      <c r="W148" s="3" t="n">
         <v>45539</v>
       </c>
-      <c r="X148" s="2" t="n">
+      <c r="X148" s="3" t="n">
         <v>45583</v>
       </c>
       <c r="Y148" t="inlineStr">
@@ -21457,14 +19708,9 @@
       <c r="AN148" t="n">
         <v>0</v>
       </c>
-      <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ148" t="inlineStr"/>
-      <c r="AR148" t="inlineStr"/>
-      <c r="AS148" t="inlineStr"/>
-      <c r="AT148" t="inlineStr"/>
       <c r="AU148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21533,10 +19779,10 @@
       <c r="O149" t="n">
         <v>1</v>
       </c>
-      <c r="P149" s="2" t="n">
+      <c r="P149" s="3" t="n">
         <v>45666</v>
       </c>
-      <c r="Q149" s="2" t="n">
+      <c r="Q149" s="3" t="n">
         <v>45716</v>
       </c>
       <c r="R149" t="inlineStr">
@@ -21549,19 +19795,19 @@
           <t>047-2024</t>
         </is>
       </c>
-      <c r="T149" s="2" t="n">
+      <c r="T149" s="3" t="n">
         <v>45472</v>
       </c>
-      <c r="U149" s="2" t="n">
+      <c r="U149" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="V149" s="2" t="n">
+      <c r="V149" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="W149" s="2" t="n">
+      <c r="W149" s="3" t="n">
         <v>45539</v>
       </c>
-      <c r="X149" s="2" t="n">
+      <c r="X149" s="3" t="n">
         <v>45583</v>
       </c>
       <c r="Y149" t="inlineStr">
@@ -21616,14 +19862,9 @@
       <c r="AN149" t="n">
         <v>0</v>
       </c>
-      <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ149" t="inlineStr"/>
-      <c r="AR149" t="inlineStr"/>
-      <c r="AS149" t="inlineStr"/>
-      <c r="AT149" t="inlineStr"/>
       <c r="AU149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21692,10 +19933,10 @@
       <c r="O150" t="n">
         <v>1</v>
       </c>
-      <c r="P150" s="2" t="n">
+      <c r="P150" s="3" t="n">
         <v>45755</v>
       </c>
-      <c r="Q150" s="2" t="n">
+      <c r="Q150" s="3" t="n">
         <v>45749</v>
       </c>
       <c r="R150" t="inlineStr">
@@ -21708,19 +19949,19 @@
           <t>048-2024</t>
         </is>
       </c>
-      <c r="T150" s="2" t="n">
+      <c r="T150" s="3" t="n">
         <v>45472</v>
       </c>
-      <c r="U150" s="2" t="n">
+      <c r="U150" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="V150" s="2" t="n">
+      <c r="V150" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="W150" s="2" t="n">
+      <c r="W150" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="X150" s="2" t="n">
+      <c r="X150" s="3" t="n">
         <v>45607</v>
       </c>
       <c r="Y150" t="inlineStr">
@@ -21775,14 +20016,9 @@
       <c r="AN150" t="n">
         <v>0</v>
       </c>
-      <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ150" t="inlineStr"/>
-      <c r="AR150" t="inlineStr"/>
-      <c r="AS150" t="inlineStr"/>
-      <c r="AT150" t="inlineStr"/>
       <c r="AU150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -21851,10 +20087,10 @@
       <c r="O151" t="n">
         <v>1</v>
       </c>
-      <c r="P151" s="2" t="n">
+      <c r="P151" s="3" t="n">
         <v>45737</v>
       </c>
-      <c r="Q151" s="2" t="n">
+      <c r="Q151" s="3" t="n">
         <v>45646</v>
       </c>
       <c r="R151" t="inlineStr">
@@ -21867,19 +20103,19 @@
           <t>049-2024</t>
         </is>
       </c>
-      <c r="T151" s="2" t="n">
+      <c r="T151" s="3" t="n">
         <v>45472</v>
       </c>
-      <c r="U151" s="2" t="n">
+      <c r="U151" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="V151" s="2" t="n">
+      <c r="V151" s="3" t="n">
         <v>45491</v>
       </c>
-      <c r="W151" s="2" t="n">
+      <c r="W151" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="X151" s="2" t="n">
+      <c r="X151" s="3" t="n">
         <v>45582</v>
       </c>
       <c r="Y151" t="inlineStr">
@@ -21934,14 +20170,9 @@
       <c r="AN151" t="n">
         <v>0</v>
       </c>
-      <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ151" t="inlineStr"/>
-      <c r="AR151" t="inlineStr"/>
-      <c r="AS151" t="inlineStr"/>
-      <c r="AT151" t="inlineStr"/>
       <c r="AU151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22010,7 +20241,7 @@
       <c r="O152" t="n">
         <v>1</v>
       </c>
-      <c r="P152" s="2" t="n">
+      <c r="P152" s="3" t="n">
         <v>45720</v>
       </c>
       <c r="Q152" t="inlineStr">
@@ -22028,19 +20259,19 @@
           <t>2024-018</t>
         </is>
       </c>
-      <c r="T152" s="2" t="n">
+      <c r="T152" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="U152" s="2" t="n">
+      <c r="U152" s="3" t="n">
         <v>45488</v>
       </c>
-      <c r="V152" s="2" t="n">
+      <c r="V152" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="W152" s="2" t="n">
+      <c r="W152" s="3" t="n">
         <v>45520</v>
       </c>
-      <c r="X152" s="2" t="n">
+      <c r="X152" s="3" t="n">
         <v>45600</v>
       </c>
       <c r="Y152" t="inlineStr">
@@ -22095,14 +20326,9 @@
       <c r="AN152" t="n">
         <v>0.13</v>
       </c>
-      <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ152" t="inlineStr"/>
-      <c r="AR152" t="inlineStr"/>
-      <c r="AS152" t="inlineStr"/>
-      <c r="AT152" t="inlineStr"/>
       <c r="AU152" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -22171,10 +20397,10 @@
       <c r="O153" t="n">
         <v>1</v>
       </c>
-      <c r="P153" s="2" t="n">
+      <c r="P153" s="3" t="n">
         <v>45720</v>
       </c>
-      <c r="Q153" s="2" t="n">
+      <c r="Q153" s="3" t="n">
         <v>45720</v>
       </c>
       <c r="R153" t="inlineStr">
@@ -22187,19 +20413,19 @@
           <t>2024-019</t>
         </is>
       </c>
-      <c r="T153" s="2" t="n">
+      <c r="T153" s="3" t="n">
         <v>45471</v>
       </c>
-      <c r="U153" s="2" t="n">
+      <c r="U153" s="3" t="n">
         <v>45488</v>
       </c>
-      <c r="V153" s="2" t="n">
+      <c r="V153" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="W153" s="2" t="n">
+      <c r="W153" s="3" t="n">
         <v>45520</v>
       </c>
-      <c r="X153" s="2" t="n">
+      <c r="X153" s="3" t="n">
         <v>45600</v>
       </c>
       <c r="Y153" t="inlineStr">
@@ -22254,14 +20480,9 @@
       <c r="AN153" t="n">
         <v>0</v>
       </c>
-      <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ153" t="inlineStr"/>
-      <c r="AR153" t="inlineStr"/>
-      <c r="AS153" t="inlineStr"/>
-      <c r="AT153" t="inlineStr"/>
       <c r="AU153" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22319,7 +20540,6 @@
       <c r="L154" t="n">
         <v>1</v>
       </c>
-      <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22328,25 +20548,20 @@
       <c r="O154" t="n">
         <v>1</v>
       </c>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr">
         <is>
           <t>Infra-01-05-2024</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" s="2" t="n">
+      <c r="T154" s="3" t="n">
         <v>45558</v>
       </c>
-      <c r="U154" s="2" t="n">
+      <c r="U154" s="3" t="n">
         <v>45566</v>
       </c>
-      <c r="V154" s="2" t="n">
+      <c r="V154" s="3" t="n">
         <v>45579</v>
       </c>
-      <c r="W154" t="inlineStr"/>
-      <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENGINEERING &amp; GENERAL SERVICES</t>
@@ -22399,14 +20614,9 @@
       <c r="AN154" t="n">
         <v>0.85</v>
       </c>
-      <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ154" t="inlineStr"/>
-      <c r="AR154" t="inlineStr"/>
-      <c r="AS154" t="inlineStr"/>
-      <c r="AT154" t="inlineStr"/>
       <c r="AU154" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -22464,7 +20674,6 @@
       <c r="L155" t="n">
         <v>1</v>
       </c>
-      <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22473,25 +20682,20 @@
       <c r="O155" t="n">
         <v>1</v>
       </c>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr">
         <is>
           <t>Infra-01-06-2024</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" s="2" t="n">
+      <c r="T155" s="3" t="n">
         <v>45558</v>
       </c>
-      <c r="U155" s="2" t="n">
+      <c r="U155" s="3" t="n">
         <v>45566</v>
       </c>
-      <c r="V155" s="2" t="n">
+      <c r="V155" s="3" t="n">
         <v>45579</v>
       </c>
-      <c r="W155" t="inlineStr"/>
-      <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr">
         <is>
           <t>VINLABZ CONSTRUCTION</t>
@@ -22544,14 +20748,9 @@
       <c r="AN155" t="n">
         <v>0.5</v>
       </c>
-      <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ155" t="inlineStr"/>
-      <c r="AR155" t="inlineStr"/>
-      <c r="AS155" t="inlineStr"/>
-      <c r="AT155" t="inlineStr"/>
       <c r="AU155" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -22609,7 +20808,6 @@
       <c r="L156" t="n">
         <v>1</v>
       </c>
-      <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22618,25 +20816,20 @@
       <c r="O156" t="n">
         <v>1</v>
       </c>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
       <c r="R156" t="inlineStr">
         <is>
           <t>Infra-01-07-2024</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" s="2" t="n">
+      <c r="T156" s="3" t="n">
         <v>45558</v>
       </c>
-      <c r="U156" s="2" t="n">
+      <c r="U156" s="3" t="n">
         <v>45566</v>
       </c>
-      <c r="V156" s="2" t="n">
+      <c r="V156" s="3" t="n">
         <v>45579</v>
       </c>
-      <c r="W156" t="inlineStr"/>
-      <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr">
         <is>
           <t>MINKONSTRAK ENGINEERING &amp; GENERAL SERVICES</t>
@@ -22689,14 +20882,9 @@
       <c r="AN156" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ156" t="inlineStr"/>
-      <c r="AR156" t="inlineStr"/>
-      <c r="AS156" t="inlineStr"/>
-      <c r="AT156" t="inlineStr"/>
       <c r="AU156" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -22765,10 +20953,10 @@
       <c r="O157" t="n">
         <v>1</v>
       </c>
-      <c r="P157" s="2" t="n">
+      <c r="P157" s="3" t="n">
         <v>45329</v>
       </c>
-      <c r="Q157" s="2" t="n">
+      <c r="Q157" s="3" t="n">
         <v>45653</v>
       </c>
       <c r="R157" t="inlineStr">
@@ -22781,19 +20969,19 @@
           <t>2024-09-0011</t>
         </is>
       </c>
-      <c r="T157" s="2" t="n">
+      <c r="T157" s="3" t="n">
         <v>45512</v>
       </c>
-      <c r="U157" s="2" t="n">
+      <c r="U157" s="3" t="n">
         <v>45531</v>
       </c>
-      <c r="V157" s="2" t="n">
+      <c r="V157" s="3" t="n">
         <v>45544</v>
       </c>
-      <c r="W157" s="2" t="n">
+      <c r="W157" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="X157" s="2" t="n">
+      <c r="X157" s="3" t="n">
         <v>45572</v>
       </c>
       <c r="Y157" t="inlineStr">
@@ -22848,14 +21036,9 @@
       <c r="AN157" t="n">
         <v>0</v>
       </c>
-      <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ157" t="inlineStr"/>
-      <c r="AR157" t="inlineStr"/>
-      <c r="AS157" t="inlineStr"/>
-      <c r="AT157" t="inlineStr"/>
       <c r="AU157" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -22913,7 +21096,6 @@
       <c r="L158" t="n">
         <v>1</v>
       </c>
-      <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -22922,16 +21104,6 @@
       <c r="O158" t="n">
         <v>1</v>
       </c>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
-      <c r="U158" t="inlineStr"/>
-      <c r="V158" t="inlineStr"/>
-      <c r="W158" t="inlineStr"/>
-      <c r="X158" t="inlineStr"/>
-      <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
           <t>On-going</t>
@@ -22979,7 +21151,6 @@
       <c r="AN158" t="n">
         <v>0.35</v>
       </c>
-      <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="n">
         <v>5.25</v>
       </c>
@@ -22992,7 +21163,6 @@
       <c r="AS158" t="n">
         <v>2949448.84</v>
       </c>
-      <c r="AT158" t="inlineStr"/>
       <c r="AU158" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -23050,7 +21220,6 @@
       <c r="L159" t="n">
         <v>1</v>
       </c>
-      <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23059,16 +21228,6 @@
       <c r="O159" t="n">
         <v>1</v>
       </c>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
-      <c r="U159" t="inlineStr"/>
-      <c r="V159" t="inlineStr"/>
-      <c r="W159" t="inlineStr"/>
-      <c r="X159" t="inlineStr"/>
-      <c r="Y159" t="inlineStr"/>
       <c r="Z159" t="inlineStr">
         <is>
           <t>Subject for Final Inspection</t>
@@ -23116,14 +21275,9 @@
       <c r="AN159" t="n">
         <v>0</v>
       </c>
-      <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ159" t="inlineStr"/>
-      <c r="AR159" t="inlineStr"/>
-      <c r="AS159" t="inlineStr"/>
-      <c r="AT159" t="inlineStr"/>
       <c r="AU159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23192,10 +21346,10 @@
       <c r="O160" t="n">
         <v>1</v>
       </c>
-      <c r="P160" s="2" t="n">
+      <c r="P160" s="3" t="n">
         <v>45757</v>
       </c>
-      <c r="Q160" s="2" t="n">
+      <c r="Q160" s="3" t="n">
         <v>45754</v>
       </c>
       <c r="R160" t="inlineStr">
@@ -23208,13 +21362,13 @@
           <t>INFRA24-08-02</t>
         </is>
       </c>
-      <c r="T160" s="2" t="n">
+      <c r="T160" s="3" t="n">
         <v>45517</v>
       </c>
-      <c r="U160" s="2" t="n">
+      <c r="U160" s="3" t="n">
         <v>45531</v>
       </c>
-      <c r="V160" s="2" t="n">
+      <c r="V160" s="3" t="n">
         <v>45544</v>
       </c>
       <c r="W160" t="inlineStr">
@@ -23222,7 +21376,7 @@
           <t>Octobe 15, 2024</t>
         </is>
       </c>
-      <c r="X160" s="2" t="n">
+      <c r="X160" s="3" t="n">
         <v>45600</v>
       </c>
       <c r="Y160" t="inlineStr">
@@ -23277,14 +21431,9 @@
       <c r="AN160" t="n">
         <v>0</v>
       </c>
-      <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="n">
         <v>4.25</v>
       </c>
-      <c r="AQ160" t="inlineStr"/>
-      <c r="AR160" t="inlineStr"/>
-      <c r="AS160" t="inlineStr"/>
-      <c r="AT160" t="inlineStr"/>
       <c r="AU160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23325,8 +21474,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
@@ -23338,7 +21485,6 @@
       <c r="L161" t="n">
         <v>1</v>
       </c>
-      <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -23347,16 +21493,6 @@
       <c r="O161" t="n">
         <v>1</v>
       </c>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
-      <c r="U161" t="inlineStr"/>
-      <c r="V161" t="inlineStr"/>
-      <c r="W161" t="inlineStr"/>
-      <c r="X161" t="inlineStr"/>
-      <c r="Y161" t="inlineStr"/>
       <c r="Z161" t="inlineStr">
         <is>
           <t>allocation was Re-align  to Geronima</t>
@@ -23398,12 +21534,9 @@
       <c r="AL161" t="n">
         <v>0</v>
       </c>
-      <c r="AM161" t="inlineStr"/>
       <c r="AN161" t="n">
         <v>1</v>
       </c>
-      <c r="AO161" t="inlineStr"/>
-      <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="n">
         <v>1</v>
       </c>
@@ -23413,7 +21546,6 @@
       <c r="AS161" t="n">
         <v>2451970.88</v>
       </c>
-      <c r="AT161" t="inlineStr"/>
       <c r="AU161" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -23482,10 +21614,9 @@
       <c r="O162" t="n">
         <v>1</v>
       </c>
-      <c r="P162" s="2" t="n">
+      <c r="P162" s="3" t="n">
         <v>45758</v>
       </c>
-      <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr">
         <is>
           <t>2024-18(Infra)</t>
@@ -23496,19 +21627,19 @@
           <t>2024-18(Infra)</t>
         </is>
       </c>
-      <c r="T162" s="2" t="n">
+      <c r="T162" s="3" t="n">
         <v>45519</v>
       </c>
-      <c r="U162" s="2" t="n">
+      <c r="U162" s="3" t="n">
         <v>45534</v>
       </c>
-      <c r="V162" s="2" t="n">
+      <c r="V162" s="3" t="n">
         <v>45547</v>
       </c>
-      <c r="W162" s="2" t="n">
+      <c r="W162" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="X162" s="2" t="n">
+      <c r="X162" s="3" t="n">
         <v>45638</v>
       </c>
       <c r="Y162" t="inlineStr">
@@ -23563,7 +21694,6 @@
       <c r="AN162" t="n">
         <v>0</v>
       </c>
-      <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="n">
         <v>4.25</v>
       </c>
@@ -23576,7 +21706,6 @@
       <c r="AS162" t="n">
         <v>1791824.87</v>
       </c>
-      <c r="AT162" t="inlineStr"/>
       <c r="AU162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23617,8 +21746,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
@@ -23630,7 +21757,6 @@
       <c r="L163" t="n">
         <v>1</v>
       </c>
-      <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -23639,16 +21765,6 @@
       <c r="O163" t="n">
         <v>1</v>
       </c>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
-      <c r="U163" t="inlineStr"/>
-      <c r="V163" t="inlineStr"/>
-      <c r="W163" t="inlineStr"/>
-      <c r="X163" t="inlineStr"/>
-      <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
           <t>allocation was Re-align  to Geronima</t>
@@ -23690,12 +21806,9 @@
       <c r="AL163" t="n">
         <v>0</v>
       </c>
-      <c r="AM163" t="inlineStr"/>
       <c r="AN163" t="n">
         <v>1</v>
       </c>
-      <c r="AO163" t="inlineStr"/>
-      <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="n">
         <v>1</v>
       </c>
@@ -23705,7 +21818,6 @@
       <c r="AS163" t="n">
         <v>943065.7200000001</v>
       </c>
-      <c r="AT163" t="inlineStr"/>
       <c r="AU163" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -23746,8 +21858,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
@@ -23759,7 +21869,6 @@
       <c r="L164" t="n">
         <v>1</v>
       </c>
-      <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -23768,16 +21877,6 @@
       <c r="O164" t="n">
         <v>1</v>
       </c>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
       <c r="Z164" t="inlineStr">
         <is>
           <t>allocation was Re-align  to Geronima</t>
@@ -23819,12 +21918,9 @@
       <c r="AL164" t="n">
         <v>0</v>
       </c>
-      <c r="AM164" t="inlineStr"/>
       <c r="AN164" t="n">
         <v>1</v>
       </c>
-      <c r="AO164" t="inlineStr"/>
-      <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="n">
         <v>1</v>
       </c>
@@ -23834,7 +21930,6 @@
       <c r="AS164" t="n">
         <v>471532.86</v>
       </c>
-      <c r="AT164" t="inlineStr"/>
       <c r="AU164" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -23892,7 +21987,6 @@
       <c r="L165" t="n">
         <v>1</v>
       </c>
-      <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -23901,10 +21995,10 @@
       <c r="O165" t="n">
         <v>1</v>
       </c>
-      <c r="P165" s="2" t="n">
+      <c r="P165" s="3" t="n">
         <v>45742</v>
       </c>
-      <c r="Q165" s="2" t="n">
+      <c r="Q165" s="3" t="n">
         <v>45862</v>
       </c>
       <c r="R165" t="inlineStr">
@@ -23917,19 +22011,19 @@
           <t>2025-01(Infra))</t>
         </is>
       </c>
-      <c r="T165" s="2" t="n">
+      <c r="T165" s="3" t="n">
         <v>45673</v>
       </c>
-      <c r="U165" s="2" t="n">
+      <c r="U165" s="3" t="n">
         <v>45679</v>
       </c>
-      <c r="V165" s="2" t="n">
+      <c r="V165" s="3" t="n">
         <v>45693</v>
       </c>
-      <c r="W165" s="2" t="n">
+      <c r="W165" s="3" t="n">
         <v>45730</v>
       </c>
-      <c r="X165" s="2" t="n">
+      <c r="X165" s="3" t="n">
         <v>45736</v>
       </c>
       <c r="Y165" t="inlineStr">
@@ -23984,7 +22078,6 @@
       <c r="AN165" t="n">
         <v>0.8</v>
       </c>
-      <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="n">
         <v>5.25</v>
       </c>
@@ -23997,7 +22090,6 @@
       <c r="AS165" t="n">
         <v>377226.29</v>
       </c>
-      <c r="AT165" t="inlineStr"/>
       <c r="AU165" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -24038,8 +22130,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
@@ -24051,7 +22141,6 @@
       <c r="L166" t="n">
         <v>1</v>
       </c>
-      <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -24060,16 +22149,6 @@
       <c r="O166" t="n">
         <v>1</v>
       </c>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
-      <c r="U166" t="inlineStr"/>
-      <c r="V166" t="inlineStr"/>
-      <c r="W166" t="inlineStr"/>
-      <c r="X166" t="inlineStr"/>
-      <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
           <t>allocation was Re-align  to Geronima</t>
@@ -24111,12 +22190,9 @@
       <c r="AL166" t="n">
         <v>0</v>
       </c>
-      <c r="AM166" t="inlineStr"/>
       <c r="AN166" t="n">
         <v>1</v>
       </c>
-      <c r="AO166" t="inlineStr"/>
-      <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="n">
         <v>1</v>
       </c>
@@ -24126,7 +22202,6 @@
       <c r="AS166" t="n">
         <v>565839.4300000001</v>
       </c>
-      <c r="AT166" t="inlineStr"/>
       <c r="AU166" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -24167,8 +22242,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr">
         <is>
           <t>Repair of Classrooms</t>
@@ -24180,7 +22253,6 @@
       <c r="L167" t="n">
         <v>1</v>
       </c>
-      <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -24189,16 +22261,6 @@
       <c r="O167" t="n">
         <v>1</v>
       </c>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
-      <c r="U167" t="inlineStr"/>
-      <c r="V167" t="inlineStr"/>
-      <c r="W167" t="inlineStr"/>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
       <c r="Z167" t="inlineStr">
         <is>
           <t>allocation was Re-align  to Panadtaran</t>
@@ -24240,12 +22302,9 @@
       <c r="AL167" t="n">
         <v>0</v>
       </c>
-      <c r="AM167" t="inlineStr"/>
       <c r="AN167" t="n">
         <v>1</v>
       </c>
-      <c r="AO167" t="inlineStr"/>
-      <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="n">
         <v>1</v>
       </c>
@@ -24255,7 +22314,6 @@
       <c r="AS167" t="n">
         <v>1414598.59</v>
       </c>
-      <c r="AT167" t="inlineStr"/>
       <c r="AU167" t="inlineStr">
         <is>
           <t>Realigned (see other remarks)</t>
@@ -24324,10 +22382,9 @@
       <c r="O168" t="n">
         <v>1</v>
       </c>
-      <c r="P168" s="2" t="n">
+      <c r="P168" s="3" t="n">
         <v>45684</v>
       </c>
-      <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr">
         <is>
           <t>002-INFRA-2024</t>
@@ -24338,17 +22395,16 @@
           <t>002-INFRA-2024</t>
         </is>
       </c>
-      <c r="T168" s="2" t="n">
+      <c r="T168" s="3" t="n">
         <v>45516</v>
       </c>
-      <c r="U168" s="2" t="n">
+      <c r="U168" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="V168" s="2" t="n">
+      <c r="V168" s="3" t="n">
         <v>45538</v>
       </c>
-      <c r="W168" t="inlineStr"/>
-      <c r="X168" s="2" t="n">
+      <c r="X168" s="3" t="n">
         <v>45609</v>
       </c>
       <c r="Y168" t="inlineStr">
@@ -24403,14 +22459,9 @@
       <c r="AN168" t="n">
         <v>0</v>
       </c>
-      <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ168" t="inlineStr"/>
-      <c r="AR168" t="inlineStr"/>
-      <c r="AS168" t="inlineStr"/>
-      <c r="AT168" t="inlineStr"/>
       <c r="AU168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24479,10 +22530,9 @@
       <c r="O169" t="n">
         <v>1</v>
       </c>
-      <c r="P169" s="2" t="n">
+      <c r="P169" s="3" t="n">
         <v>45660</v>
       </c>
-      <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr">
         <is>
           <t>002-INFRA-2024</t>
@@ -24493,17 +22543,16 @@
           <t>002-INFRA-2024</t>
         </is>
       </c>
-      <c r="T169" s="2" t="n">
+      <c r="T169" s="3" t="n">
         <v>45516</v>
       </c>
-      <c r="U169" s="2" t="n">
+      <c r="U169" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="V169" s="2" t="n">
+      <c r="V169" s="3" t="n">
         <v>45538</v>
       </c>
-      <c r="W169" t="inlineStr"/>
-      <c r="X169" s="2" t="n">
+      <c r="X169" s="3" t="n">
         <v>45594</v>
       </c>
       <c r="Y169" t="inlineStr">
@@ -24558,14 +22607,9 @@
       <c r="AN169" t="n">
         <v>0</v>
       </c>
-      <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ169" t="inlineStr"/>
-      <c r="AR169" t="inlineStr"/>
-      <c r="AS169" t="inlineStr"/>
-      <c r="AT169" t="inlineStr"/>
       <c r="AU169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24634,10 +22678,9 @@
       <c r="O170" t="n">
         <v>1</v>
       </c>
-      <c r="P170" s="2" t="n">
+      <c r="P170" s="3" t="n">
         <v>45668</v>
       </c>
-      <c r="Q170" t="inlineStr"/>
       <c r="R170" t="inlineStr">
         <is>
           <t>002-INFRA-2024</t>
@@ -24648,17 +22691,16 @@
           <t>002-INFRA-2024</t>
         </is>
       </c>
-      <c r="T170" s="2" t="n">
+      <c r="T170" s="3" t="n">
         <v>45516</v>
       </c>
-      <c r="U170" s="2" t="n">
+      <c r="U170" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="V170" s="2" t="n">
+      <c r="V170" s="3" t="n">
         <v>45538</v>
       </c>
-      <c r="W170" t="inlineStr"/>
-      <c r="X170" s="2" t="n">
+      <c r="X170" s="3" t="n">
         <v>45594</v>
       </c>
       <c r="Y170" t="inlineStr">
@@ -24713,14 +22755,9 @@
       <c r="AN170" t="n">
         <v>0</v>
       </c>
-      <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ170" t="inlineStr"/>
-      <c r="AR170" t="inlineStr"/>
-      <c r="AS170" t="inlineStr"/>
-      <c r="AT170" t="inlineStr"/>
       <c r="AU170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -24789,10 +22826,9 @@
       <c r="O171" t="n">
         <v>1</v>
       </c>
-      <c r="P171" s="2" t="n">
+      <c r="P171" s="3" t="n">
         <v>45668</v>
       </c>
-      <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr">
         <is>
           <t>BEFF 2024 REPAIR/REHABILITATION OF CLASSROOMS BATCH 1 - REGION X - MISAMIS OCCIDENTAL - 001</t>
@@ -24803,19 +22839,19 @@
           <t>022-2024</t>
         </is>
       </c>
-      <c r="T171" s="2" t="n">
+      <c r="T171" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U171" s="2" t="n">
+      <c r="U171" s="3" t="n">
         <v>45510</v>
       </c>
-      <c r="V171" s="2" t="n">
+      <c r="V171" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="W171" s="2" t="n">
+      <c r="W171" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="X171" s="2" t="n">
+      <c r="X171" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Y171" t="inlineStr">
@@ -24870,14 +22906,9 @@
       <c r="AN171" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ171" t="inlineStr"/>
-      <c r="AR171" t="inlineStr"/>
-      <c r="AS171" t="inlineStr"/>
-      <c r="AT171" t="inlineStr"/>
       <c r="AU171" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -24946,10 +22977,9 @@
       <c r="O172" t="n">
         <v>1</v>
       </c>
-      <c r="P172" s="2" t="n">
+      <c r="P172" s="3" t="n">
         <v>45728</v>
       </c>
-      <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr">
         <is>
           <t>BEFF 2024 REPAIR/REHABILITATION OF CLASSROOMS BATCH 1 - REGION X - MISAMIS OCCIDENTAL - 002</t>
@@ -24960,19 +22990,19 @@
           <t>023-2024</t>
         </is>
       </c>
-      <c r="T172" s="2" t="n">
+      <c r="T172" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U172" s="2" t="n">
+      <c r="U172" s="3" t="n">
         <v>45510</v>
       </c>
-      <c r="V172" s="2" t="n">
+      <c r="V172" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="W172" s="2" t="n">
+      <c r="W172" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="X172" s="2" t="n">
+      <c r="X172" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Y172" t="inlineStr">
@@ -25027,14 +23057,9 @@
       <c r="AN172" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ172" t="inlineStr"/>
-      <c r="AR172" t="inlineStr"/>
-      <c r="AS172" t="inlineStr"/>
-      <c r="AT172" t="inlineStr"/>
       <c r="AU172" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25103,10 +23128,9 @@
       <c r="O173" t="n">
         <v>1</v>
       </c>
-      <c r="P173" s="2" t="n">
+      <c r="P173" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr">
         <is>
           <t>BEFF 2024 REPAIR/REHABILITATION OF CLASSROOMS BATCH 1 - REGION X - MISAMIS OCCIDENTAL - 003</t>
@@ -25117,19 +23141,19 @@
           <t>024-2024</t>
         </is>
       </c>
-      <c r="T173" s="2" t="n">
+      <c r="T173" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U173" s="2" t="n">
+      <c r="U173" s="3" t="n">
         <v>45510</v>
       </c>
-      <c r="V173" s="2" t="n">
+      <c r="V173" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="W173" s="2" t="n">
+      <c r="W173" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="X173" s="2" t="n">
+      <c r="X173" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Y173" t="inlineStr">
@@ -25184,14 +23208,9 @@
       <c r="AN173" t="n">
         <v>0.32</v>
       </c>
-      <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ173" t="inlineStr"/>
-      <c r="AR173" t="inlineStr"/>
-      <c r="AS173" t="inlineStr"/>
-      <c r="AT173" t="inlineStr"/>
       <c r="AU173" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25260,10 +23279,9 @@
       <c r="O174" t="n">
         <v>1</v>
       </c>
-      <c r="P174" s="2" t="n">
+      <c r="P174" s="3" t="n">
         <v>45698</v>
       </c>
-      <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr">
         <is>
           <t>BEFF 2024 REPAIR/REHABILITATION OF CLASSROOMS BATCH 1 - REGION X - MISAMIS OCCIDENTAL - 004</t>
@@ -25274,19 +23292,19 @@
           <t>025-2024</t>
         </is>
       </c>
-      <c r="T174" s="2" t="n">
+      <c r="T174" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U174" s="2" t="n">
+      <c r="U174" s="3" t="n">
         <v>45510</v>
       </c>
-      <c r="V174" s="2" t="n">
+      <c r="V174" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="W174" s="2" t="n">
+      <c r="W174" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="X174" s="2" t="n">
+      <c r="X174" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Y174" t="inlineStr">
@@ -25341,14 +23359,9 @@
       <c r="AN174" t="n">
         <v>0.42</v>
       </c>
-      <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ174" t="inlineStr"/>
-      <c r="AR174" t="inlineStr"/>
-      <c r="AS174" t="inlineStr"/>
-      <c r="AT174" t="inlineStr"/>
       <c r="AU174" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25417,8 +23430,6 @@
       <c r="O175" t="n">
         <v>1</v>
       </c>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr">
         <is>
           <t>BEFF 2024 REPAIR/REHABILITATION OF CLASSROOMS BATCH 1 - REGION X - MISAMIS OCCIDENTAL - 005</t>
@@ -25429,19 +23440,19 @@
           <t>026-2024</t>
         </is>
       </c>
-      <c r="T175" s="2" t="n">
+      <c r="T175" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U175" s="2" t="n">
+      <c r="U175" s="3" t="n">
         <v>45510</v>
       </c>
-      <c r="V175" s="2" t="n">
+      <c r="V175" s="3" t="n">
         <v>45523</v>
       </c>
-      <c r="W175" s="2" t="n">
+      <c r="W175" s="3" t="n">
         <v>45551</v>
       </c>
-      <c r="X175" s="2" t="n">
+      <c r="X175" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Y175" t="inlineStr">
@@ -25496,14 +23507,9 @@
       <c r="AN175" t="n">
         <v>0.45</v>
       </c>
-      <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ175" t="inlineStr"/>
-      <c r="AR175" t="inlineStr"/>
-      <c r="AS175" t="inlineStr"/>
-      <c r="AT175" t="inlineStr"/>
       <c r="AU175" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25572,10 +23578,9 @@
       <c r="O176" t="n">
         <v>1</v>
       </c>
-      <c r="P176" s="2" t="n">
+      <c r="P176" s="3" t="n">
         <v>45781</v>
       </c>
-      <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr">
         <is>
           <t>PB-BAC1-Repair-2024-002</t>
@@ -25584,19 +23589,19 @@
       <c r="S176" t="n">
         <v>5230097</v>
       </c>
-      <c r="T176" s="2" t="n">
+      <c r="T176" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U176" s="2" t="n">
+      <c r="U176" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="V176" s="2" t="n">
+      <c r="V176" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="W176" s="2" t="n">
+      <c r="W176" s="3" t="n">
         <v>45545</v>
       </c>
-      <c r="X176" s="2" t="n">
+      <c r="X176" s="3" t="n">
         <v>45623</v>
       </c>
       <c r="Y176" t="inlineStr">
@@ -25651,14 +23656,9 @@
       <c r="AN176" t="n">
         <v>0.6</v>
       </c>
-      <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ176" t="inlineStr"/>
-      <c r="AR176" t="inlineStr"/>
-      <c r="AS176" t="inlineStr"/>
-      <c r="AT176" t="inlineStr"/>
       <c r="AU176" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25727,10 +23727,9 @@
       <c r="O177" t="n">
         <v>1</v>
       </c>
-      <c r="P177" s="2" t="n">
+      <c r="P177" s="3" t="n">
         <v>45751</v>
       </c>
-      <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr">
         <is>
           <t>PB-BAC1-Repair-2024-002</t>
@@ -25739,19 +23738,19 @@
       <c r="S177" t="n">
         <v>5230172</v>
       </c>
-      <c r="T177" s="2" t="n">
+      <c r="T177" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U177" s="2" t="n">
+      <c r="U177" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="V177" s="2" t="n">
+      <c r="V177" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="W177" s="2" t="n">
+      <c r="W177" s="3" t="n">
         <v>45545</v>
       </c>
-      <c r="X177" s="2" t="n">
+      <c r="X177" s="3" t="n">
         <v>45623</v>
       </c>
       <c r="Y177" t="inlineStr">
@@ -25806,14 +23805,9 @@
       <c r="AN177" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ177" t="inlineStr"/>
-      <c r="AR177" t="inlineStr"/>
-      <c r="AS177" t="inlineStr"/>
-      <c r="AT177" t="inlineStr"/>
       <c r="AU177" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -25882,10 +23876,9 @@
       <c r="O178" t="n">
         <v>1</v>
       </c>
-      <c r="P178" s="2" t="n">
+      <c r="P178" s="3" t="n">
         <v>45715</v>
       </c>
-      <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr">
         <is>
           <t>PB-BAC1-Repair-2024-003</t>
@@ -25894,19 +23887,19 @@
       <c r="S178" t="n">
         <v>5235571</v>
       </c>
-      <c r="T178" s="2" t="n">
+      <c r="T178" s="3" t="n">
         <v>45565</v>
       </c>
-      <c r="U178" s="2" t="n">
+      <c r="U178" s="3" t="n">
         <v>45573</v>
       </c>
-      <c r="V178" s="2" t="n">
+      <c r="V178" s="3" t="n">
         <v>45586</v>
       </c>
-      <c r="W178" s="2" t="n">
+      <c r="W178" s="3" t="n">
         <v>45603</v>
       </c>
-      <c r="X178" s="2" t="n">
+      <c r="X178" s="3" t="n">
         <v>45646</v>
       </c>
       <c r="Y178" t="inlineStr">
@@ -25961,14 +23954,9 @@
       <c r="AN178" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ178" t="inlineStr"/>
-      <c r="AR178" t="inlineStr"/>
-      <c r="AS178" t="inlineStr"/>
-      <c r="AT178" t="inlineStr"/>
       <c r="AU178" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26037,8 +24025,7 @@
       <c r="O179" t="n">
         <v>1</v>
       </c>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" s="2" t="n">
+      <c r="Q179" s="3" t="n">
         <v>45695</v>
       </c>
       <c r="R179" t="inlineStr">
@@ -26049,19 +24036,19 @@
       <c r="S179" t="n">
         <v>5267990</v>
       </c>
-      <c r="T179" s="2" t="n">
+      <c r="T179" s="3" t="n">
         <v>45565</v>
       </c>
-      <c r="U179" s="2" t="n">
+      <c r="U179" s="3" t="n">
         <v>45573</v>
       </c>
-      <c r="V179" s="2" t="n">
+      <c r="V179" s="3" t="n">
         <v>45586</v>
       </c>
-      <c r="W179" s="2" t="n">
+      <c r="W179" s="3" t="n">
         <v>45603</v>
       </c>
-      <c r="X179" s="2" t="n">
+      <c r="X179" s="3" t="n">
         <v>45646</v>
       </c>
       <c r="Y179" t="inlineStr">
@@ -26069,7 +24056,6 @@
           <t>JDE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z179" t="inlineStr"/>
       <c r="AA179" t="n">
         <v>0</v>
       </c>
@@ -26112,14 +24098,9 @@
       <c r="AN179" t="n">
         <v>0</v>
       </c>
-      <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="n">
         <v>2.25</v>
       </c>
-      <c r="AQ179" t="inlineStr"/>
-      <c r="AR179" t="inlineStr"/>
-      <c r="AS179" t="inlineStr"/>
-      <c r="AT179" t="inlineStr"/>
       <c r="AU179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26188,8 +24169,7 @@
       <c r="O180" t="n">
         <v>1</v>
       </c>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" s="2" t="n">
+      <c r="Q180" s="3" t="n">
         <v>45689</v>
       </c>
       <c r="R180" t="inlineStr">
@@ -26200,19 +24180,19 @@
       <c r="S180" t="n">
         <v>5235571</v>
       </c>
-      <c r="T180" s="2" t="n">
+      <c r="T180" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="U180" s="2" t="n">
+      <c r="U180" s="3" t="n">
         <v>45511</v>
       </c>
-      <c r="V180" s="2" t="n">
+      <c r="V180" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="W180" s="2" t="n">
+      <c r="W180" s="3" t="n">
         <v>45572</v>
       </c>
-      <c r="X180" s="2" t="n">
+      <c r="X180" s="3" t="n">
         <v>45622</v>
       </c>
       <c r="Y180" t="inlineStr">
@@ -26220,7 +24200,6 @@
           <t>CY SQUARED</t>
         </is>
       </c>
-      <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="n">
         <v>0</v>
       </c>
@@ -26263,14 +24242,9 @@
       <c r="AN180" t="n">
         <v>0</v>
       </c>
-      <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="n">
         <v>3.25</v>
       </c>
-      <c r="AQ180" t="inlineStr"/>
-      <c r="AR180" t="inlineStr"/>
-      <c r="AS180" t="inlineStr"/>
-      <c r="AT180" t="inlineStr"/>
       <c r="AU180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
@@ -26344,26 +24318,24 @@
           <t>2‎ ‎April‎ ‎2025</t>
         </is>
       </c>
-      <c r="Q181" t="inlineStr"/>
       <c r="R181" t="inlineStr">
         <is>
           <t>INFRA-2024-DEPEDOROQ-03</t>
         </is>
       </c>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" s="2" t="n">
+      <c r="T181" s="3" t="n">
         <v>45470</v>
       </c>
-      <c r="U181" s="2" t="n">
+      <c r="U181" s="3" t="n">
         <v>45478</v>
       </c>
-      <c r="V181" s="2" t="n">
+      <c r="V181" s="3" t="n">
         <v>45490</v>
       </c>
-      <c r="W181" s="2" t="n">
+      <c r="W181" s="3" t="n">
         <v>45555</v>
       </c>
-      <c r="X181" s="2" t="n">
+      <c r="X181" s="3" t="n">
         <v>45569</v>
       </c>
       <c r="Y181" t="inlineStr">
@@ -26418,14 +24390,9 @@
       <c r="AN181" t="n">
         <v>0.09999999999999998</v>
       </c>
-      <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ181" t="inlineStr"/>
-      <c r="AR181" t="inlineStr"/>
-      <c r="AS181" t="inlineStr"/>
-      <c r="AT181" t="inlineStr"/>
       <c r="AU181" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26494,10 +24461,9 @@
       <c r="O182" t="n">
         <v>1</v>
       </c>
-      <c r="P182" s="2" t="n">
+      <c r="P182" s="3" t="n">
         <v>45745</v>
       </c>
-      <c r="Q182" t="inlineStr"/>
       <c r="R182" t="inlineStr">
         <is>
           <t>092-CIVIL-2024-001</t>
@@ -26508,19 +24474,19 @@
           <t>092-CIVIL-2024-001</t>
         </is>
       </c>
-      <c r="T182" s="2" t="n">
+      <c r="T182" s="3" t="n">
         <v>45512</v>
       </c>
-      <c r="U182" s="2" t="n">
+      <c r="U182" s="3" t="n">
         <v>45519</v>
       </c>
-      <c r="V182" s="2" t="n">
+      <c r="V182" s="3" t="n">
         <v>45531</v>
       </c>
-      <c r="W182" s="2" t="n">
+      <c r="W182" s="3" t="n">
         <v>45565</v>
       </c>
-      <c r="X182" s="2" t="n">
+      <c r="X182" s="3" t="n">
         <v>45595</v>
       </c>
       <c r="Y182" t="inlineStr">
@@ -26575,14 +24541,9 @@
       <c r="AN182" t="n">
         <v>0.05000000000000004</v>
       </c>
-      <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ182" t="inlineStr"/>
-      <c r="AR182" t="inlineStr"/>
-      <c r="AS182" t="inlineStr"/>
-      <c r="AT182" t="inlineStr"/>
       <c r="AU182" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26651,23 +24612,18 @@
       <c r="O183" t="n">
         <v>1</v>
       </c>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" s="2" t="n">
+      <c r="T183" s="3" t="n">
         <v>45481</v>
       </c>
-      <c r="U183" s="2" t="n">
+      <c r="U183" s="3" t="n">
         <v>45489</v>
       </c>
-      <c r="V183" s="2" t="n">
+      <c r="V183" s="3" t="n">
         <v>45502</v>
       </c>
-      <c r="W183" s="2" t="n">
+      <c r="W183" s="3" t="n">
         <v>45509</v>
       </c>
-      <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr">
         <is>
           <t>ESL Milestone Builders Inc</t>
@@ -26720,14 +24676,9 @@
       <c r="AN183" t="n">
         <v>0.3</v>
       </c>
-      <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="n">
         <v>5.25</v>
       </c>
-      <c r="AQ183" t="inlineStr"/>
-      <c r="AR183" t="inlineStr"/>
-      <c r="AS183" t="inlineStr"/>
-      <c r="AT183" t="inlineStr"/>
       <c r="AU183" t="inlineStr">
         <is>
           <t>Ongoing</t>
@@ -26785,7 +24736,6 @@
       <c r="L184" t="n">
         <v>1</v>
       </c>
-      <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr">
         <is>
           <t>Under procurement</t>
@@ -26794,16 +24744,6 @@
       <c r="O184" t="n">
         <v>0</v>
       </c>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr"/>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
       <c r="Z184" t="inlineStr">
         <is>
           <t>rebid; Failure of 1st bidding</t>
@@ -26851,15 +24791,82 @@
       <c r="AN184" t="n">
         <v>0</v>
       </c>
-      <c r="AO184" t="inlineStr"/>
-      <c r="AP184" t="inlineStr"/>
-      <c r="AQ184" t="inlineStr"/>
-      <c r="AR184" t="inlineStr"/>
-      <c r="AS184" t="inlineStr"/>
-      <c r="AT184" t="inlineStr"/>
       <c r="AU184" t="inlineStr">
         <is>
           <t>Under procurement</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AV2:AV184" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>

--- a/Filtered_By_Region/Region X/Region X_REPAIR.xlsx
+++ b/Filtered_By_Region/Region X/Region X_REPAIR.xlsx
@@ -762,47 +762,8 @@
           <t>Rebid</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
       <c r="AM2" t="n">
         <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -897,47 +858,8 @@
           <t>Rebid</t>
         </is>
       </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
       <c r="AM3" t="n">
         <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -1032,47 +954,8 @@
           <t>Rebid</t>
         </is>
       </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
       <c r="AM4" t="n">
         <v>1</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1170,47 +1053,8 @@
           <t>AWAITING FOR SUB-ARO</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
       <c r="AM5" t="n">
         <v>1</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1308,47 +1152,8 @@
           <t>AWAITING FOR SUB-ARO</t>
         </is>
       </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
       <c r="AM6" t="n">
         <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1446,47 +1251,8 @@
           <t>AWAITING FOR SUB-ARO</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
       <c r="AM7" t="n">
         <v>1</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1556,47 +1322,8 @@
       <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
       <c r="AM8" t="n">
         <v>1</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -1666,47 +1393,8 @@
       <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
       <c r="AM9" t="n">
         <v>1</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -1776,47 +1464,8 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
       <c r="AM10" t="n">
         <v>1</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -1886,47 +1535,8 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
       <c r="AM11" t="n">
         <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -1996,47 +1606,8 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
       <c r="AM12" t="n">
         <v>1</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -2128,47 +1699,8 @@
           <t>Waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
       <c r="AM13" t="n">
         <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -2260,47 +1792,8 @@
           <t>Waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
       <c r="AM14" t="n">
         <v>1</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -2392,47 +1885,8 @@
           <t>Waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
       <c r="AM15" t="n">
         <v>1</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -2510,47 +1964,8 @@
           <t>Waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
       <c r="AM16" t="n">
         <v>1</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -2628,47 +2043,8 @@
           <t>Waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
       <c r="AM17" t="n">
         <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -2746,47 +2122,8 @@
           <t>Waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
         <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -2861,47 +2198,8 @@
           <t>Under-procurement</t>
         </is>
       </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
       <c r="AM19" t="n">
         <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -2971,47 +2269,8 @@
       <c r="O20" t="n">
         <v>1</v>
       </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
       <c r="AM20" t="n">
         <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -3086,47 +2345,8 @@
           <t>with issue on peace and order</t>
         </is>
       </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
       <c r="AM21" t="n">
         <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -3196,47 +2416,8 @@
       <c r="O22" t="n">
         <v>1</v>
       </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0</v>
-      </c>
       <c r="AM22" t="n">
         <v>1</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>0</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
@@ -3311,47 +2492,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
         <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -3426,47 +2568,8 @@
           <t>WITH LD</t>
         </is>
       </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
       <c r="AM24" t="n">
         <v>1</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -3541,47 +2644,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
       <c r="AM25" t="n">
         <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
@@ -3656,47 +2720,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
       <c r="AM26" t="n">
         <v>1</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
@@ -3771,47 +2796,8 @@
           <t>WITH LD</t>
         </is>
       </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
       <c r="AM27" t="n">
         <v>1</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -3901,47 +2887,8 @@
           <t>Yamar Construction</t>
         </is>
       </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
       <c r="AM28" t="n">
         <v>1</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
@@ -4031,47 +2978,8 @@
           <t>Yamar Construction</t>
         </is>
       </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
       <c r="AM29" t="n">
         <v>1</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -4161,47 +3069,8 @@
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
       <c r="AM30" t="n">
         <v>1</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -4291,47 +3160,8 @@
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
       <c r="AM31" t="n">
         <v>1</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
@@ -4421,47 +3251,8 @@
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
       <c r="AM32" t="n">
         <v>1</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
@@ -4551,47 +3342,8 @@
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0</v>
-      </c>
       <c r="AM33" t="n">
         <v>1</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>0</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
@@ -4681,47 +3433,8 @@
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
       <c r="AM34" t="n">
         <v>1</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>0</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
@@ -4811,47 +3524,8 @@
           <t>Millenium Builders &amp; Construction</t>
         </is>
       </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
       <c r="AM35" t="n">
         <v>1</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
@@ -4921,47 +3595,8 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
       <c r="AM36" t="n">
         <v>1</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
@@ -5051,47 +3686,8 @@
           <t>Millenium Builders &amp; Construction</t>
         </is>
       </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
       <c r="AM37" t="n">
         <v>1</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
@@ -5181,47 +3777,8 @@
           <t>Inmar Builders</t>
         </is>
       </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
       <c r="AM38" t="n">
         <v>1</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
@@ -5318,47 +3875,8 @@
           <t>Under-procurement</t>
         </is>
       </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
       <c r="AM39" t="n">
         <v>1</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
@@ -5436,47 +3954,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
       <c r="AM40" t="n">
         <v>1</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
@@ -5549,47 +4028,8 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
       <c r="AM41" t="n">
         <v>1</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
@@ -5662,47 +4102,8 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
       <c r="AM42" t="n">
         <v>1</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
@@ -5780,47 +4181,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
       <c r="AM43" t="n">
         <v>1</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
@@ -5898,47 +4260,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
       <c r="AM44" t="n">
         <v>1</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
@@ -6016,47 +4339,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
       <c r="AM45" t="n">
         <v>1</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
@@ -6134,47 +4418,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
       <c r="AM46" t="n">
         <v>1</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
@@ -6249,47 +4494,8 @@
           <t>For RTA</t>
         </is>
       </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
       <c r="AM47" t="n">
         <v>1</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
@@ -6364,47 +4570,8 @@
           <t>For RTA</t>
         </is>
       </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0</v>
-      </c>
       <c r="AM48" t="n">
         <v>1</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>0</v>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
@@ -6479,47 +4646,8 @@
           <t>For RTA</t>
         </is>
       </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0</v>
-      </c>
       <c r="AM49" t="n">
         <v>1</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>0</v>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
@@ -6594,47 +4722,8 @@
           <t>For RTA</t>
         </is>
       </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0</v>
-      </c>
       <c r="AM50" t="n">
         <v>1</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>0</v>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
@@ -6709,47 +4798,8 @@
           <t>For RTA</t>
         </is>
       </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>0</v>
-      </c>
       <c r="AM51" t="n">
         <v>1</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>0</v>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
@@ -6824,47 +4874,8 @@
           <t>For RTA</t>
         </is>
       </c>
-      <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>0</v>
-      </c>
       <c r="AM52" t="n">
         <v>1</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>0</v>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
@@ -6942,47 +4953,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0</v>
-      </c>
       <c r="AM53" t="n">
         <v>1</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>0</v>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
@@ -7060,47 +5032,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0</v>
-      </c>
       <c r="AM54" t="n">
         <v>1</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
@@ -7178,47 +5111,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
       <c r="AM55" t="n">
         <v>1</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
@@ -7296,47 +5190,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>0</v>
-      </c>
       <c r="AM56" t="n">
         <v>1</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
@@ -7414,47 +5269,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>0</v>
-      </c>
       <c r="AM57" t="n">
         <v>1</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
@@ -7532,47 +5348,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0</v>
-      </c>
       <c r="AM58" t="n">
         <v>1</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
       </c>
       <c r="AP58" t="inlineStr">
         <is>
@@ -7661,47 +5438,8 @@
           <t>for contract signing</t>
         </is>
       </c>
-      <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>0</v>
-      </c>
       <c r="AM59" t="n">
         <v>1</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
       </c>
       <c r="AP59" t="inlineStr">
         <is>
@@ -7790,47 +5528,8 @@
           <t>for contract signing</t>
         </is>
       </c>
-      <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0</v>
-      </c>
       <c r="AM60" t="n">
         <v>1</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
       </c>
       <c r="AP60" t="inlineStr">
         <is>
@@ -7919,47 +5618,8 @@
           <t>for contract signing</t>
         </is>
       </c>
-      <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0</v>
-      </c>
       <c r="AM61" t="n">
         <v>1</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>0</v>
       </c>
       <c r="AP61" t="inlineStr">
         <is>
@@ -8048,47 +5708,8 @@
           <t>for contract signing</t>
         </is>
       </c>
-      <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ62" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>0</v>
-      </c>
       <c r="AM62" t="n">
         <v>1</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>0</v>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
@@ -8163,47 +5784,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ63" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL63" t="n">
-        <v>0</v>
-      </c>
       <c r="AM63" t="n">
         <v>1</v>
-      </c>
-      <c r="AN63" t="n">
-        <v>0</v>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
@@ -8273,47 +5855,8 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL64" t="n">
-        <v>0</v>
-      </c>
       <c r="AM64" t="n">
         <v>1</v>
-      </c>
-      <c r="AN64" t="n">
-        <v>0</v>
       </c>
       <c r="AO64" t="n">
         <v>0</v>
@@ -8386,47 +5929,8 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>0</v>
-      </c>
       <c r="AM65" t="n">
         <v>1</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>0</v>
       </c>
       <c r="AO65" t="n">
         <v>0</v>
@@ -8499,47 +6003,8 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL66" t="n">
-        <v>0</v>
-      </c>
       <c r="AM66" t="n">
         <v>1</v>
-      </c>
-      <c r="AN66" t="n">
-        <v>0</v>
       </c>
       <c r="AO66" t="n">
         <v>0</v>
@@ -8647,47 +6112,8 @@
           <t>JARM Construction Services and Supply</t>
         </is>
       </c>
-      <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ67" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL67" t="n">
-        <v>0</v>
-      </c>
       <c r="AM67" t="n">
         <v>1</v>
-      </c>
-      <c r="AN67" t="n">
-        <v>0</v>
       </c>
       <c r="AO67" t="n">
         <v>0</v>
@@ -8795,47 +6221,8 @@
           <t>JARM Construction Services and Supply</t>
         </is>
       </c>
-      <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0</v>
-      </c>
       <c r="AM68" t="n">
         <v>1</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>0</v>
       </c>
       <c r="AO68" t="n">
         <v>0</v>
@@ -8943,47 +6330,8 @@
           <t>JARM Construction Services and Supply</t>
         </is>
       </c>
-      <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0</v>
-      </c>
       <c r="AM69" t="n">
         <v>1</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>0</v>
       </c>
       <c r="AO69" t="n">
         <v>0</v>
@@ -9067,47 +6415,8 @@
           <t>VINLABZ CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ70" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL70" t="n">
-        <v>0</v>
-      </c>
       <c r="AM70" t="n">
         <v>1</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>0</v>
       </c>
       <c r="AO70" t="n">
         <v>0</v>
@@ -9204,47 +6513,8 @@
           <t>Waiting for Sub-ARO</t>
         </is>
       </c>
-      <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
-      </c>
       <c r="AM71" t="n">
         <v>1</v>
-      </c>
-      <c r="AN71" t="n">
-        <v>0</v>
       </c>
       <c r="AO71" t="n">
         <v>0</v>
@@ -9317,47 +6587,8 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>0</v>
-      </c>
       <c r="AM72" t="n">
         <v>1</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>0</v>
       </c>
       <c r="AO72" t="n">
         <v>0</v>
@@ -9435,47 +6666,8 @@
           <t>for issuance of NTP</t>
         </is>
       </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>0</v>
-      </c>
       <c r="AM73" t="n">
         <v>1</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>0</v>
       </c>
       <c r="AO73" t="n">
         <v>0</v>
@@ -9553,47 +6745,8 @@
           <t>for issuance of NTP</t>
         </is>
       </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ74" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL74" t="n">
-        <v>0</v>
-      </c>
       <c r="AM74" t="n">
         <v>1</v>
-      </c>
-      <c r="AN74" t="n">
-        <v>0</v>
       </c>
       <c r="AO74" t="n">
         <v>0</v>
@@ -9671,47 +6824,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ75" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL75" t="n">
-        <v>0</v>
-      </c>
       <c r="AM75" t="n">
         <v>1</v>
-      </c>
-      <c r="AN75" t="n">
-        <v>0</v>
       </c>
       <c r="AO75" t="n">
         <v>0</v>
@@ -9789,47 +6903,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
       <c r="AM76" t="n">
         <v>1</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
       </c>
       <c r="AO76" t="n">
         <v>0</v>
@@ -9907,47 +6982,8 @@
           <t>for award</t>
         </is>
       </c>
-      <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ77" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL77" t="n">
-        <v>0</v>
-      </c>
       <c r="AM77" t="n">
         <v>1</v>
-      </c>
-      <c r="AN77" t="n">
-        <v>0</v>
       </c>
       <c r="AO77" t="n">
         <v>0</v>
@@ -10033,47 +7069,8 @@
           <t>AMMAR Construcrion &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>0</v>
-      </c>
       <c r="AM78" t="n">
         <v>1</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>0</v>
       </c>
       <c r="AO78" t="n">
         <v>0</v>
@@ -10165,47 +7162,8 @@
           <t>INMAR Builder &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>0</v>
-      </c>
       <c r="AM79" t="n">
         <v>1</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0</v>
       </c>
       <c r="AO79" t="n">
         <v>0</v>
@@ -10297,47 +7255,8 @@
           <t>INMAR Builder &amp; Enterprises</t>
         </is>
       </c>
-      <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ80" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>0</v>
-      </c>
       <c r="AM80" t="n">
         <v>1</v>
-      </c>
-      <c r="AN80" t="n">
-        <v>0</v>
       </c>
       <c r="AO80" t="n">
         <v>0</v>
@@ -10429,47 +7348,8 @@
           <t>Lanao Genesis Construction Supply</t>
         </is>
       </c>
-      <c r="AA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0</v>
-      </c>
       <c r="AM81" t="n">
         <v>1</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>0</v>
       </c>
       <c r="AO81" t="n">
         <v>0</v>
@@ -10580,47 +7460,8 @@
           <t>For Punchlist Inspection</t>
         </is>
       </c>
-      <c r="AA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL82" t="n">
-        <v>0</v>
-      </c>
       <c r="AM82" t="n">
         <v>1</v>
-      </c>
-      <c r="AN82" t="n">
-        <v>0</v>
       </c>
       <c r="AO82" t="n">
         <v>44896</v>
@@ -10731,47 +7572,8 @@
           <t>Issued Punchlist Inspection Report for Final Inspection</t>
         </is>
       </c>
-      <c r="AA83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL83" t="n">
-        <v>0</v>
-      </c>
       <c r="AM83" t="n">
         <v>1</v>
-      </c>
-      <c r="AN83" t="n">
-        <v>0</v>
       </c>
       <c r="AO83" t="n">
         <v>44896</v>
@@ -10882,47 +7684,8 @@
           <t>Issued Punchlist Inspection Report for Final Inspection</t>
         </is>
       </c>
-      <c r="AA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>0</v>
-      </c>
       <c r="AM84" t="n">
         <v>1</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>0</v>
       </c>
       <c r="AO84" t="n">
         <v>44896</v>
@@ -11025,47 +7788,8 @@
           <t>KAYRO CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL85" t="n">
-        <v>0</v>
-      </c>
       <c r="AM85" t="n">
         <v>1</v>
-      </c>
-      <c r="AN85" t="n">
-        <v>0</v>
       </c>
       <c r="AO85" t="n">
         <v>0</v>
@@ -11168,47 +7892,8 @@
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ86" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL86" t="n">
-        <v>0</v>
-      </c>
       <c r="AM86" t="n">
         <v>1</v>
-      </c>
-      <c r="AN86" t="n">
-        <v>0</v>
       </c>
       <c r="AO86" t="n">
         <v>0</v>
@@ -11311,47 +7996,8 @@
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="AA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0</v>
-      </c>
       <c r="AM87" t="n">
         <v>1</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>0</v>
       </c>
       <c r="AO87" t="n">
         <v>0</v>
@@ -11449,47 +8095,8 @@
           <t>TriFB</t>
         </is>
       </c>
-      <c r="AA88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>0</v>
-      </c>
       <c r="AM88" t="n">
         <v>1</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>0</v>
       </c>
       <c r="AO88" t="n">
         <v>0</v>
@@ -11587,47 +8194,8 @@
           <t>TriFB</t>
         </is>
       </c>
-      <c r="AA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>0</v>
-      </c>
       <c r="AM89" t="n">
         <v>1</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>0</v>
       </c>
       <c r="AO89" t="n">
         <v>0</v>
@@ -11735,47 +8303,8 @@
           <t>Variance is subject for Variation order &amp; Additional Works</t>
         </is>
       </c>
-      <c r="AA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>0</v>
-      </c>
       <c r="AM90" t="n">
         <v>1</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>0</v>
       </c>
       <c r="AO90" t="n">
         <v>0</v>
@@ -11878,47 +8407,8 @@
           <t>Variance is subject for Variation order &amp; Additional Works</t>
         </is>
       </c>
-      <c r="AA91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ91" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL91" t="n">
-        <v>0</v>
-      </c>
       <c r="AM91" t="n">
         <v>1</v>
-      </c>
-      <c r="AN91" t="n">
-        <v>0</v>
       </c>
       <c r="AO91" t="n">
         <v>0</v>
@@ -12024,47 +8514,8 @@
           <t>JJFY Construction Services</t>
         </is>
       </c>
-      <c r="AA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ92" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL92" t="n">
-        <v>0</v>
-      </c>
       <c r="AM92" t="n">
         <v>1</v>
-      </c>
-      <c r="AN92" t="n">
-        <v>0</v>
       </c>
       <c r="AO92" t="n">
         <v>0</v>
@@ -12170,47 +8621,8 @@
           <t>JJFY Construction Services</t>
         </is>
       </c>
-      <c r="AA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ93" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK93" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL93" t="n">
-        <v>0</v>
-      </c>
       <c r="AM93" t="n">
         <v>1</v>
-      </c>
-      <c r="AN93" t="n">
-        <v>0</v>
       </c>
       <c r="AO93" t="n">
         <v>0</v>
@@ -12311,47 +8723,8 @@
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="AA94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ94" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL94" t="n">
-        <v>0</v>
-      </c>
       <c r="AM94" t="n">
         <v>1</v>
-      </c>
-      <c r="AN94" t="n">
-        <v>0</v>
       </c>
       <c r="AO94" t="n">
         <v>0</v>
@@ -12452,47 +8825,8 @@
           <t>ESL MILESTONE BUILDERS &amp; SUPPLY, INC</t>
         </is>
       </c>
-      <c r="AA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL95" t="n">
-        <v>0</v>
-      </c>
       <c r="AM95" t="n">
         <v>1</v>
-      </c>
-      <c r="AN95" t="n">
-        <v>0</v>
       </c>
       <c r="AO95" t="n">
         <v>0</v>
@@ -12588,47 +8922,8 @@
           <t>White Beard Construction</t>
         </is>
       </c>
-      <c r="AA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE96" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ96" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL96" t="n">
-        <v>0</v>
-      </c>
       <c r="AM96" t="n">
         <v>1</v>
-      </c>
-      <c r="AN96" t="n">
-        <v>0</v>
       </c>
       <c r="AO96" t="n">
         <v>0</v>
@@ -12742,47 +9037,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ97" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL97" t="n">
-        <v>0</v>
-      </c>
       <c r="AM97" t="n">
         <v>1</v>
-      </c>
-      <c r="AN97" t="n">
-        <v>0</v>
       </c>
       <c r="AP97" t="inlineStr">
         <is>
@@ -12898,47 +9154,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0</v>
-      </c>
       <c r="AM98" t="n">
         <v>1</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>0</v>
       </c>
       <c r="AP98" t="inlineStr">
         <is>
@@ -13057,47 +9274,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ99" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK99" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL99" t="n">
-        <v>0</v>
-      </c>
       <c r="AM99" t="n">
         <v>1</v>
-      </c>
-      <c r="AN99" t="n">
-        <v>0</v>
       </c>
       <c r="AP99" t="inlineStr">
         <is>
@@ -13216,47 +9394,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ100" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>0</v>
-      </c>
       <c r="AM100" t="n">
         <v>1</v>
-      </c>
-      <c r="AN100" t="n">
-        <v>0</v>
       </c>
       <c r="AP100" t="inlineStr">
         <is>
@@ -13362,47 +9501,8 @@
           <t>MOH'D Construction</t>
         </is>
       </c>
-      <c r="AA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0</v>
-      </c>
       <c r="AM101" t="n">
         <v>1</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>0</v>
       </c>
       <c r="AP101" t="inlineStr">
         <is>
@@ -13511,47 +9611,8 @@
           <t>ABRAHAM-BM Construction</t>
         </is>
       </c>
-      <c r="AA102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ102" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL102" t="n">
-        <v>0</v>
-      </c>
       <c r="AM102" t="n">
         <v>1</v>
-      </c>
-      <c r="AN102" t="n">
-        <v>0</v>
       </c>
       <c r="AP102" t="inlineStr">
         <is>
@@ -13662,47 +9723,8 @@
           <t>Punchlist</t>
         </is>
       </c>
-      <c r="AA103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>0</v>
-      </c>
       <c r="AM103" t="n">
         <v>1</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>0</v>
       </c>
       <c r="AP103" t="inlineStr">
         <is>
@@ -13811,47 +9833,8 @@
           <t>SBM Builder</t>
         </is>
       </c>
-      <c r="AA104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL104" t="n">
-        <v>0</v>
-      </c>
       <c r="AM104" t="n">
         <v>1</v>
-      </c>
-      <c r="AN104" t="n">
-        <v>0</v>
       </c>
       <c r="AP104" t="inlineStr">
         <is>
@@ -13955,47 +9938,8 @@
           <t>SBM Builder</t>
         </is>
       </c>
-      <c r="AA105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>0</v>
-      </c>
       <c r="AM105" t="n">
         <v>1</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>0</v>
       </c>
       <c r="AP105" t="inlineStr">
         <is>
@@ -14106,47 +10050,8 @@
           <t>Substantially Completed</t>
         </is>
       </c>
-      <c r="AA106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>0</v>
-      </c>
       <c r="AM106" t="n">
         <v>1</v>
-      </c>
-      <c r="AN106" t="n">
-        <v>0</v>
       </c>
       <c r="AP106" t="inlineStr">
         <is>
@@ -14262,47 +10167,8 @@
           <t>subject for final inspection</t>
         </is>
       </c>
-      <c r="AA107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>0</v>
-      </c>
       <c r="AM107" t="n">
         <v>1</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>0</v>
       </c>
       <c r="AP107" t="inlineStr">
         <is>
@@ -14415,47 +10281,8 @@
           <t>on-going</t>
         </is>
       </c>
-      <c r="AA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>0</v>
-      </c>
       <c r="AM108" t="n">
         <v>1</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>0</v>
       </c>
       <c r="AO108" t="n">
         <v>44986</v>
@@ -14562,47 +10389,8 @@
           <t>for punchlisting</t>
         </is>
       </c>
-      <c r="AA109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>0</v>
-      </c>
       <c r="AM109" t="n">
         <v>1</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>0</v>
       </c>
       <c r="AO109" t="n">
         <v>44986</v>
@@ -14699,47 +10487,8 @@
           <t>GREEN BUILDER AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ110" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL110" t="n">
-        <v>0</v>
-      </c>
       <c r="AM110" t="n">
         <v>1</v>
-      </c>
-      <c r="AN110" t="n">
-        <v>0</v>
       </c>
       <c r="AO110" t="n">
         <v>44986</v>
@@ -14841,47 +10590,8 @@
           <t>GREEN BUILDER AND ENTERPRISE</t>
         </is>
       </c>
-      <c r="AA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ111" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL111" t="n">
-        <v>0</v>
-      </c>
       <c r="AM111" t="n">
         <v>1</v>
-      </c>
-      <c r="AN111" t="n">
-        <v>0</v>
       </c>
       <c r="AO111" t="n">
         <v>44986</v>
@@ -14988,47 +10698,8 @@
           <t>Substancially Completed</t>
         </is>
       </c>
-      <c r="AA112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>0</v>
-      </c>
       <c r="AM112" t="n">
         <v>1</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>0</v>
       </c>
       <c r="AO112" t="n">
         <v>44986</v>
@@ -15130,47 +10801,8 @@
           <t xml:space="preserve">ALEBON GENUINE MERCHANDIZING INC. </t>
         </is>
       </c>
-      <c r="AA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ113" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL113" t="n">
-        <v>0</v>
-      </c>
       <c r="AM113" t="n">
         <v>1</v>
-      </c>
-      <c r="AN113" t="n">
-        <v>0</v>
       </c>
       <c r="AO113" t="n">
         <v>44986</v>
@@ -15277,47 +10909,8 @@
           <t>on-going</t>
         </is>
       </c>
-      <c r="AA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ114" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK114" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL114" t="n">
-        <v>0</v>
-      </c>
       <c r="AM114" t="n">
         <v>1</v>
-      </c>
-      <c r="AN114" t="n">
-        <v>0</v>
       </c>
       <c r="AO114" t="n">
         <v>44986</v>
@@ -15419,47 +11012,8 @@
           <t xml:space="preserve">ALEBON GENUINE MERCHANDIZING INC. </t>
         </is>
       </c>
-      <c r="AA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ115" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL115" t="n">
-        <v>0</v>
-      </c>
       <c r="AM115" t="n">
         <v>1</v>
-      </c>
-      <c r="AN115" t="n">
-        <v>0</v>
       </c>
       <c r="AO115" t="n">
         <v>44986</v>
@@ -15564,47 +11118,8 @@
           <t xml:space="preserve">JDE CONSTRUCTION </t>
         </is>
       </c>
-      <c r="AA116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ116" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL116" t="n">
-        <v>0</v>
-      </c>
       <c r="AM116" t="n">
         <v>1</v>
-      </c>
-      <c r="AN116" t="n">
-        <v>0</v>
       </c>
       <c r="AP116" t="inlineStr">
         <is>
@@ -15708,47 +11223,8 @@
           <t xml:space="preserve">JDE CONSTRUCTION </t>
         </is>
       </c>
-      <c r="AA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>0</v>
-      </c>
       <c r="AM117" t="n">
         <v>1</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>0</v>
       </c>
       <c r="AP117" t="inlineStr">
         <is>
@@ -15863,47 +11339,8 @@
           <t>MINKONSTRAK ENG'G. &amp; GEN. SRVCS.</t>
         </is>
       </c>
-      <c r="AA118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>0</v>
-      </c>
       <c r="AM118" t="n">
         <v>1</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>0</v>
       </c>
       <c r="AP118" t="n">
         <v>3.24</v>
@@ -15975,47 +11412,8 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="AA119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>0</v>
-      </c>
       <c r="AM119" t="n">
         <v>1</v>
-      </c>
-      <c r="AN119" t="n">
-        <v>0</v>
       </c>
       <c r="AP119" t="n">
         <v>7.24</v>
@@ -16087,47 +11485,8 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="AA120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL120" t="n">
-        <v>0</v>
-      </c>
       <c r="AM120" t="n">
         <v>1</v>
-      </c>
-      <c r="AN120" t="n">
-        <v>0</v>
       </c>
       <c r="AP120" t="n">
         <v>7.24</v>
@@ -16199,47 +11558,8 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="AA121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ121" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK121" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL121" t="n">
-        <v>0</v>
-      </c>
       <c r="AM121" t="n">
         <v>1</v>
-      </c>
-      <c r="AN121" t="n">
-        <v>0</v>
       </c>
       <c r="AP121" t="n">
         <v>7.24</v>
@@ -16355,47 +11675,8 @@
           <t>Based on report submitted by DPWH</t>
         </is>
       </c>
-      <c r="AA122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ122" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL122" t="n">
-        <v>0</v>
-      </c>
       <c r="AM122" t="n">
         <v>1</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>0</v>
       </c>
       <c r="AP122" t="n">
         <v>11.23</v>
@@ -16516,47 +11797,8 @@
           <t>Based on report submitted by DPWH</t>
         </is>
       </c>
-      <c r="AA123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>0</v>
-      </c>
       <c r="AM123" t="n">
         <v>1</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>0</v>
       </c>
       <c r="AP123" t="n">
         <v>11.23</v>
@@ -16677,47 +11919,8 @@
           <t>Based on report submitted by DPWH</t>
         </is>
       </c>
-      <c r="AA124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>0</v>
-      </c>
       <c r="AM124" t="n">
         <v>1</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>0</v>
       </c>
       <c r="AP124" t="n">
         <v>11.23</v>
@@ -16794,47 +11997,8 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="AA125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>0</v>
-      </c>
       <c r="AM125" t="n">
         <v>1</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>0</v>
       </c>
       <c r="AP125" t="n">
         <v>3.24</v>
@@ -16906,47 +12070,8 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="AA126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>0</v>
-      </c>
       <c r="AM126" t="n">
         <v>1</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>0</v>
       </c>
       <c r="AP126" t="n">
         <v>3.24</v>
@@ -17018,47 +12143,8 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="AA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL127" t="n">
-        <v>0</v>
-      </c>
       <c r="AM127" t="n">
         <v>1</v>
-      </c>
-      <c r="AN127" t="n">
-        <v>0</v>
       </c>
       <c r="AP127" t="n">
         <v>3.24</v>
@@ -17130,47 +12216,8 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="AA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>0</v>
-      </c>
       <c r="AM128" t="n">
         <v>1</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>0</v>
       </c>
       <c r="AP128" t="n">
         <v>7.24</v>
@@ -17242,47 +12289,8 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="AA129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE129" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ129" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>0</v>
-      </c>
       <c r="AM129" t="n">
         <v>1</v>
-      </c>
-      <c r="AN129" t="n">
-        <v>0</v>
       </c>
       <c r="AP129" t="n">
         <v>7.24</v>
@@ -17354,47 +12362,8 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="AA130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ130" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL130" t="n">
-        <v>0</v>
-      </c>
       <c r="AM130" t="n">
         <v>1</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>0</v>
       </c>
       <c r="AP130" t="n">
         <v>7.24</v>
@@ -17466,47 +12435,8 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="AA131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL131" t="n">
-        <v>0</v>
-      </c>
       <c r="AM131" t="n">
         <v>1</v>
-      </c>
-      <c r="AN131" t="n">
-        <v>0</v>
       </c>
       <c r="AP131" t="n">
         <v>7.24</v>
@@ -17578,47 +12508,8 @@
       <c r="O132" t="n">
         <v>1</v>
       </c>
-      <c r="AA132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE132" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ132" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL132" t="n">
-        <v>0</v>
-      </c>
       <c r="AM132" t="n">
         <v>1</v>
-      </c>
-      <c r="AN132" t="n">
-        <v>0</v>
       </c>
       <c r="AP132" t="n">
         <v>3.24</v>
@@ -17695,47 +12586,8 @@
           <t>With rectification works</t>
         </is>
       </c>
-      <c r="AA133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE133" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ133" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL133" t="n">
-        <v>0</v>
-      </c>
       <c r="AM133" t="n">
         <v>1</v>
-      </c>
-      <c r="AN133" t="n">
-        <v>0</v>
       </c>
       <c r="AP133" t="n">
         <v>10.24</v>
@@ -17812,47 +12664,8 @@
           <t>With rectification works</t>
         </is>
       </c>
-      <c r="AA134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE134" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ134" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK134" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL134" t="n">
-        <v>0</v>
-      </c>
       <c r="AM134" t="n">
         <v>1</v>
-      </c>
-      <c r="AN134" t="n">
-        <v>0</v>
       </c>
       <c r="AP134" t="n">
         <v>10.24</v>
@@ -17929,47 +12742,8 @@
           <t>With rectification works</t>
         </is>
       </c>
-      <c r="AA135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE135" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK135" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL135" t="n">
-        <v>0</v>
-      </c>
       <c r="AM135" t="n">
         <v>1</v>
-      </c>
-      <c r="AN135" t="n">
-        <v>0</v>
       </c>
       <c r="AP135" t="n">
         <v>10.24</v>
@@ -18046,47 +12820,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE136" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ136" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL136" t="n">
-        <v>0</v>
-      </c>
       <c r="AM136" t="n">
         <v>1</v>
-      </c>
-      <c r="AN136" t="n">
-        <v>0</v>
       </c>
       <c r="AP136" t="n">
         <v>2.25</v>
@@ -18179,47 +12914,8 @@
           <t>23KK0187</t>
         </is>
       </c>
-      <c r="AA137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE137" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ137" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK137" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL137" t="n">
-        <v>0</v>
-      </c>
       <c r="AM137" t="n">
         <v>1</v>
-      </c>
-      <c r="AN137" t="n">
-        <v>0</v>
       </c>
       <c r="AP137" t="n">
         <v>2.24</v>
@@ -18317,47 +13013,8 @@
           <t>23KK0188</t>
         </is>
       </c>
-      <c r="AA138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ138" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK138" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL138" t="n">
-        <v>0</v>
-      </c>
       <c r="AM138" t="n">
         <v>1</v>
-      </c>
-      <c r="AN138" t="n">
-        <v>0</v>
       </c>
       <c r="AP138" t="n">
         <v>12.23</v>
@@ -18455,47 +13112,8 @@
           <t>23KK0184</t>
         </is>
       </c>
-      <c r="AA139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE139" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ139" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>0</v>
-      </c>
       <c r="AM139" t="n">
         <v>1</v>
-      </c>
-      <c r="AN139" t="n">
-        <v>0</v>
       </c>
       <c r="AP139" t="n">
         <v>2.24</v>
@@ -18600,47 +13218,8 @@
           <t>Ongoing Site inspection by the Engineers from Division of Misamis Oriental</t>
         </is>
       </c>
-      <c r="AA140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE140" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>0</v>
-      </c>
       <c r="AM140" t="n">
         <v>1</v>
-      </c>
-      <c r="AN140" t="n">
-        <v>0</v>
       </c>
       <c r="AP140" t="n">
         <v>11.24</v>
@@ -18738,47 +13317,8 @@
           <t>Ongoing Site inspection by the Engineers from Division of Misamis Oriental</t>
         </is>
       </c>
-      <c r="AA141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE141" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ141" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK141" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL141" t="n">
-        <v>0</v>
-      </c>
       <c r="AM141" t="n">
         <v>1</v>
-      </c>
-      <c r="AN141" t="n">
-        <v>0</v>
       </c>
       <c r="AP141" t="n">
         <v>4.24</v>
@@ -18874,47 +13414,8 @@
           <t>Ongoing Site inspection by the Engineers from Division of Misamis Oriental</t>
         </is>
       </c>
-      <c r="AA142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ142" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL142" t="n">
-        <v>0</v>
-      </c>
       <c r="AM142" t="n">
         <v>1</v>
-      </c>
-      <c r="AN142" t="n">
-        <v>0</v>
       </c>
       <c r="AP142" t="n">
         <v>4.24</v>
@@ -19008,47 +13509,8 @@
           <t>RI Construction Services</t>
         </is>
       </c>
-      <c r="AA143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK143" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL143" t="n">
-        <v>0</v>
-      </c>
       <c r="AM143" t="n">
         <v>1</v>
-      </c>
-      <c r="AN143" t="n">
-        <v>0</v>
       </c>
       <c r="AP143" t="n">
         <v>4.24</v>
@@ -19141,47 +13603,8 @@
           <t>23KK0196</t>
         </is>
       </c>
-      <c r="AA144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ144" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK144" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL144" t="n">
-        <v>0</v>
-      </c>
       <c r="AM144" t="n">
         <v>1</v>
-      </c>
-      <c r="AN144" t="n">
-        <v>0</v>
       </c>
       <c r="AP144" t="n">
         <v>2.24</v>
@@ -19263,47 +13686,8 @@
           <t xml:space="preserve">Based on report submitted by DPWH and was checked on January 31, 2024. </t>
         </is>
       </c>
-      <c r="AA145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ145" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK145" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>0</v>
-      </c>
       <c r="AM145" t="n">
         <v>1</v>
-      </c>
-      <c r="AN145" t="n">
-        <v>0</v>
       </c>
       <c r="AP145" t="n">
         <v>11.23</v>
@@ -19385,47 +13769,8 @@
           <t xml:space="preserve">Based on report submitted by DPWH and was checked on January 31, 2024. </t>
         </is>
       </c>
-      <c r="AA146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE146" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ146" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL146" t="n">
-        <v>0</v>
-      </c>
       <c r="AM146" t="n">
         <v>1</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>0</v>
       </c>
       <c r="AP146" t="n">
         <v>11.23</v>
@@ -19507,47 +13852,8 @@
           <t>Previous accomplishment was based on the report submitted by DPWH. It was corrected during the joint inspection conducted on January 31, 2024.</t>
         </is>
       </c>
-      <c r="AA147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE147" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>0</v>
-      </c>
       <c r="AM147" t="n">
         <v>1</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>0</v>
       </c>
       <c r="AP147" t="n">
         <v>11.23</v>
@@ -19666,47 +13972,8 @@
           <t>Updated 2-2025. CTE-1 APPROVED. Revised Expiry on February 8, 2025. Awaiting doc reqs for official completion &amp; turnover.</t>
         </is>
       </c>
-      <c r="AA148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE148" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL148" t="n">
-        <v>0</v>
-      </c>
       <c r="AM148" t="n">
         <v>1</v>
-      </c>
-      <c r="AN148" t="n">
-        <v>0</v>
       </c>
       <c r="AP148" t="n">
         <v>3.25</v>
@@ -19820,47 +14087,8 @@
           <t>Updated 2-2025. CTE-2 APPROVED. Revised Expiry on February 28, 2025. Awaiting doc. reqs for official completion &amp; turnonver.</t>
         </is>
       </c>
-      <c r="AA149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE149" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>0</v>
-      </c>
       <c r="AM149" t="n">
         <v>1</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>0</v>
       </c>
       <c r="AP149" t="n">
         <v>3.25</v>
@@ -19974,47 +14202,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>0</v>
-      </c>
       <c r="AM150" t="n">
         <v>1</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>0</v>
       </c>
       <c r="AP150" t="n">
         <v>4.25</v>
@@ -20128,47 +14317,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE151" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ151" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>0</v>
-      </c>
       <c r="AM151" t="n">
         <v>1</v>
-      </c>
-      <c r="AN151" t="n">
-        <v>0</v>
       </c>
       <c r="AP151" t="n">
         <v>2.25</v>
@@ -20284,48 +14434,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE152" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ152" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL152" t="n">
-        <v>0</v>
-      </c>
       <c r="AM152" t="n">
         <v>0.87</v>
       </c>
-      <c r="AN152" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AP152" t="n">
         <v>5.25</v>
       </c>
@@ -20438,47 +14549,8 @@
           <t>Substantially completed</t>
         </is>
       </c>
-      <c r="AA153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE153" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ153" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK153" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL153" t="n">
-        <v>0</v>
-      </c>
       <c r="AM153" t="n">
         <v>1</v>
-      </c>
-      <c r="AN153" t="n">
-        <v>0</v>
       </c>
       <c r="AP153" t="n">
         <v>3.25</v>
@@ -20572,48 +14644,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE154" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ154" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK154" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL154" t="n">
-        <v>0</v>
-      </c>
       <c r="AM154" t="n">
         <v>0.15</v>
       </c>
-      <c r="AN154" t="n">
-        <v>0.85</v>
-      </c>
       <c r="AP154" t="n">
         <v>5.25</v>
       </c>
@@ -20706,48 +14739,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE155" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ155" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK155" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL155" t="n">
-        <v>0</v>
-      </c>
       <c r="AM155" t="n">
         <v>0.5</v>
       </c>
-      <c r="AN155" t="n">
-        <v>0.5</v>
-      </c>
       <c r="AP155" t="n">
         <v>5.25</v>
       </c>
@@ -20840,48 +14834,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>0</v>
-      </c>
       <c r="AM156" t="n">
         <v>0.95</v>
       </c>
-      <c r="AN156" t="n">
-        <v>0.05000000000000004</v>
-      </c>
       <c r="AP156" t="n">
         <v>5.25</v>
       </c>
@@ -20994,47 +14949,8 @@
           <t>Subject for Final Inspection</t>
         </is>
       </c>
-      <c r="AA157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE157" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ157" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL157" t="n">
-        <v>0</v>
-      </c>
       <c r="AM157" t="n">
         <v>1</v>
-      </c>
-      <c r="AN157" t="n">
-        <v>0</v>
       </c>
       <c r="AP157" t="n">
         <v>3.25</v>
@@ -21109,48 +15025,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE158" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ158" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK158" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL158" t="n">
-        <v>0</v>
-      </c>
       <c r="AM158" t="n">
         <v>0.65</v>
       </c>
-      <c r="AN158" t="n">
-        <v>0.35</v>
-      </c>
       <c r="AP158" t="n">
         <v>5.25</v>
       </c>
@@ -21233,47 +15110,8 @@
           <t>Subject for Final Inspection</t>
         </is>
       </c>
-      <c r="AA159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE159" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ159" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL159" t="n">
-        <v>0</v>
-      </c>
       <c r="AM159" t="n">
         <v>1</v>
-      </c>
-      <c r="AN159" t="n">
-        <v>0</v>
       </c>
       <c r="AP159" t="n">
         <v>2.25</v>
@@ -21389,47 +15227,8 @@
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE160" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ160" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK160" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL160" t="n">
-        <v>0</v>
-      </c>
       <c r="AM160" t="n">
         <v>1</v>
-      </c>
-      <c r="AN160" t="n">
-        <v>0</v>
       </c>
       <c r="AP160" t="n">
         <v>4.25</v>
@@ -21498,45 +15297,6 @@
           <t>allocation was Re-align  to Geronima</t>
         </is>
       </c>
-      <c r="AA161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL161" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN161" t="n">
-        <v>1</v>
-      </c>
       <c r="AQ161" t="n">
         <v>1</v>
       </c>
@@ -21652,47 +15412,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE162" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ162" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL162" t="n">
-        <v>0</v>
-      </c>
       <c r="AM162" t="n">
         <v>1</v>
-      </c>
-      <c r="AN162" t="n">
-        <v>0</v>
       </c>
       <c r="AP162" t="n">
         <v>4.25</v>
@@ -21770,45 +15491,6 @@
           <t>allocation was Re-align  to Geronima</t>
         </is>
       </c>
-      <c r="AA163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL163" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN163" t="n">
-        <v>1</v>
-      </c>
       <c r="AQ163" t="n">
         <v>1</v>
       </c>
@@ -21882,45 +15564,6 @@
           <t>allocation was Re-align  to Geronima</t>
         </is>
       </c>
-      <c r="AA164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN164" t="n">
-        <v>1</v>
-      </c>
       <c r="AQ164" t="n">
         <v>1</v>
       </c>
@@ -22036,48 +15679,9 @@
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>0</v>
-      </c>
       <c r="AM165" t="n">
         <v>0.2</v>
       </c>
-      <c r="AN165" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AP165" t="n">
         <v>5.25</v>
       </c>
@@ -22154,45 +15758,6 @@
           <t>allocation was Re-align  to Geronima</t>
         </is>
       </c>
-      <c r="AA166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL166" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN166" t="n">
-        <v>1</v>
-      </c>
       <c r="AQ166" t="n">
         <v>1</v>
       </c>
@@ -22266,45 +15831,6 @@
           <t>allocation was Re-align  to Panadtaran</t>
         </is>
       </c>
-      <c r="AA167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL167" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN167" t="n">
-        <v>1</v>
-      </c>
       <c r="AQ167" t="n">
         <v>1</v>
       </c>
@@ -22417,47 +15943,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ168" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK168" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL168" t="n">
-        <v>0</v>
-      </c>
       <c r="AM168" t="n">
         <v>1</v>
-      </c>
-      <c r="AN168" t="n">
-        <v>0</v>
       </c>
       <c r="AP168" t="n">
         <v>3.25</v>
@@ -22565,47 +16052,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE169" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ169" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK169" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL169" t="n">
-        <v>0</v>
-      </c>
       <c r="AM169" t="n">
         <v>1</v>
-      </c>
-      <c r="AN169" t="n">
-        <v>0</v>
       </c>
       <c r="AP169" t="n">
         <v>3.25</v>
@@ -22713,47 +16161,8 @@
           <t>Completed</t>
         </is>
       </c>
-      <c r="AA170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE170" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ170" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK170" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL170" t="n">
-        <v>0</v>
-      </c>
       <c r="AM170" t="n">
         <v>1</v>
-      </c>
-      <c r="AN170" t="n">
-        <v>0</v>
       </c>
       <c r="AP170" t="n">
         <v>3.25</v>
@@ -22864,48 +16273,9 @@
           <t>For rectification of issued Punchlist of Corrective Works</t>
         </is>
       </c>
-      <c r="AA171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE171" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ171" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK171" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL171" t="n">
-        <v>0</v>
-      </c>
       <c r="AM171" t="n">
         <v>0.95</v>
       </c>
-      <c r="AN171" t="n">
-        <v>0.05000000000000004</v>
-      </c>
       <c r="AP171" t="n">
         <v>5.25</v>
       </c>
@@ -23015,48 +16385,9 @@
           <t>For rectification of issued Punchlist of Corrective Works</t>
         </is>
       </c>
-      <c r="AA172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE172" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL172" t="n">
-        <v>0</v>
-      </c>
       <c r="AM172" t="n">
         <v>0.95</v>
       </c>
-      <c r="AN172" t="n">
-        <v>0.05000000000000004</v>
-      </c>
       <c r="AP172" t="n">
         <v>5.25</v>
       </c>
@@ -23166,48 +16497,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE173" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK173" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL173" t="n">
-        <v>0</v>
-      </c>
       <c r="AM173" t="n">
         <v>0.68</v>
       </c>
-      <c r="AN173" t="n">
-        <v>0.32</v>
-      </c>
       <c r="AP173" t="n">
         <v>5.25</v>
       </c>
@@ -23317,48 +16609,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE174" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ174" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK174" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL174" t="n">
-        <v>0</v>
-      </c>
       <c r="AM174" t="n">
         <v>0.58</v>
       </c>
-      <c r="AN174" t="n">
-        <v>0.42</v>
-      </c>
       <c r="AP174" t="n">
         <v>5.25</v>
       </c>
@@ -23465,48 +16718,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE175" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ175" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK175" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL175" t="n">
-        <v>0</v>
-      </c>
       <c r="AM175" t="n">
         <v>0.55</v>
       </c>
-      <c r="AN175" t="n">
-        <v>0.45</v>
-      </c>
       <c r="AP175" t="n">
         <v>5.25</v>
       </c>
@@ -23614,48 +16828,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE176" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ176" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK176" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL176" t="n">
-        <v>0</v>
-      </c>
       <c r="AM176" t="n">
         <v>0.4</v>
       </c>
-      <c r="AN176" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AP176" t="n">
         <v>5.25</v>
       </c>
@@ -23763,48 +16938,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE177" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ177" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK177" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL177" t="n">
-        <v>0</v>
-      </c>
       <c r="AM177" t="n">
         <v>0.9</v>
       </c>
-      <c r="AN177" t="n">
-        <v>0.09999999999999998</v>
-      </c>
       <c r="AP177" t="n">
         <v>5.25</v>
       </c>
@@ -23912,48 +17048,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE178" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ178" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL178" t="n">
-        <v>0</v>
-      </c>
       <c r="AM178" t="n">
         <v>0.9</v>
       </c>
-      <c r="AN178" t="n">
-        <v>0.09999999999999998</v>
-      </c>
       <c r="AP178" t="n">
         <v>5.25</v>
       </c>
@@ -24056,47 +17153,8 @@
           <t>JDE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="AA179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE179" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ179" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL179" t="n">
-        <v>0</v>
-      </c>
       <c r="AM179" t="n">
         <v>1</v>
-      </c>
-      <c r="AN179" t="n">
-        <v>0</v>
       </c>
       <c r="AP179" t="n">
         <v>2.25</v>
@@ -24200,47 +17258,8 @@
           <t>CY SQUARED</t>
         </is>
       </c>
-      <c r="AA180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ180" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL180" t="n">
-        <v>0</v>
-      </c>
       <c r="AM180" t="n">
         <v>1</v>
-      </c>
-      <c r="AN180" t="n">
-        <v>0</v>
       </c>
       <c r="AP180" t="n">
         <v>3.25</v>
@@ -24348,48 +17367,9 @@
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="AA181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE181" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ181" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL181" t="n">
-        <v>0</v>
-      </c>
       <c r="AM181" t="n">
         <v>0.9</v>
       </c>
-      <c r="AN181" t="n">
-        <v>0.09999999999999998</v>
-      </c>
       <c r="AP181" t="n">
         <v>5.25</v>
       </c>
@@ -24499,48 +17479,9 @@
           <t>on-going implementation</t>
         </is>
       </c>
-      <c r="AA182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE182" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ182" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL182" t="n">
-        <v>0</v>
-      </c>
       <c r="AM182" t="n">
         <v>0.95</v>
       </c>
-      <c r="AN182" t="n">
-        <v>0.05000000000000004</v>
-      </c>
       <c r="AP182" t="n">
         <v>5.25</v>
       </c>
@@ -24634,48 +17575,9 @@
           <t>On-going</t>
         </is>
       </c>
-      <c r="AA183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE183" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ183" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL183" t="n">
-        <v>0</v>
-      </c>
       <c r="AM183" t="n">
         <v>0.7</v>
       </c>
-      <c r="AN183" t="n">
-        <v>0.3</v>
-      </c>
       <c r="AP183" t="n">
         <v>5.25</v>
       </c>
@@ -24749,46 +17651,7 @@
           <t>rebid; Failure of 1st bidding</t>
         </is>
       </c>
-      <c r="AA184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC184" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH184" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL184" t="n">
-        <v>0</v>
-      </c>
       <c r="AM184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN184" t="n">
         <v>0</v>
       </c>
       <c r="AU184" t="inlineStr">
